--- a/Greece/GREEK SEATS.xlsx
+++ b/Greece/GREEK SEATS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harvi\Documents\Opinion-Polling\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0589912-F862-49A7-83DD-3A48DC566B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34225FF5-8BC1-4A64-8168-DC5309D40E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -726,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97613716-C1B1-4732-A08F-6A43BE8B05B8}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,15 +747,15 @@
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <f>B4-25</f>
-        <v>5.8000000000000007</v>
+        <v>4.8999999999999986</v>
       </c>
       <c r="C2">
         <f>B2/0.5</f>
-        <v>11.600000000000001</v>
+        <v>9.7999999999999972</v>
       </c>
       <c r="D2">
         <f>ROUNDDOWN(20+C2,0)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -770,7 +770,7 @@
       </c>
       <c r="D3" s="8">
         <f>D1-D2</f>
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>11</v>
@@ -788,30 +788,30 @@
         <v>0</v>
       </c>
       <c r="B4" s="11">
-        <v>30.8</v>
+        <v>29.9</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" ref="C4:C15" si="0">IF(B4&gt;=3,B4,0)</f>
-        <v>30.8</v>
+        <v>29.9</v>
       </c>
       <c r="D4" s="5">
         <f>(C4/$C$16)*$D$3</f>
-        <v>87.581395348837219</v>
+        <v>87.409924487594381</v>
       </c>
       <c r="E4" s="5">
         <f>ROUND(D4+D2,0)</f>
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F4" s="5">
         <f>ROUND(D4+D2,1)</f>
-        <v>118.6</v>
+        <v>116.4</v>
       </c>
       <c r="G4" s="5">
         <v>158</v>
       </c>
       <c r="H4" s="6">
         <f>E4-G4</f>
-        <v>-39</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -819,15 +819,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="12">
-        <v>8.1999999999999993</v>
+        <v>7.9</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>8.1999999999999993</v>
+        <v>7.9</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D15" si="1">(C5/$C$16)*$D$3</f>
-        <v>23.317124735729386</v>
+        <v>23.094929881337649</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E15" si="2">ROUND(D5,0)</f>
@@ -835,7 +835,7 @@
       </c>
       <c r="F5" s="1">
         <f>ROUND(D5,1)</f>
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="G5" s="1">
         <v>47</v>
@@ -850,30 +850,30 @@
         <v>2</v>
       </c>
       <c r="B6" s="12">
-        <v>17.3</v>
+        <v>16.5</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>17.3</v>
+        <v>16.5</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>49.193446088794929</v>
+        <v>48.236245954692556</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ref="F6:F15" si="4">ROUND(D6,1)</f>
-        <v>49.2</v>
+        <v>48.2</v>
       </c>
       <c r="G6" s="1">
         <v>32</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -881,30 +881,30 @@
         <v>3</v>
       </c>
       <c r="B7" s="12">
-        <v>8.9</v>
+        <v>8.1</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>8.9</v>
+        <v>8.1</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>25.307610993657509</v>
+        <v>23.679611650485434</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="4"/>
-        <v>25.3</v>
+        <v>23.7</v>
       </c>
       <c r="G7" s="1">
         <v>21</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -912,7 +912,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="12">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -943,30 +943,30 @@
         <v>5</v>
       </c>
       <c r="B9" s="12">
-        <v>8.1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>8.1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>23.032769556025368</v>
+        <v>26.895361380798271</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>26.9</v>
       </c>
       <c r="G9" s="1">
         <v>12</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -982,22 +982,22 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>9.3837209302325579</v>
+        <v>9.6472491909385116</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="4"/>
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="G10" s="1">
         <v>10</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1005,30 +1005,30 @@
         <v>7</v>
       </c>
       <c r="B11" s="12">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>15.070824524312897</v>
+        <v>13.155339805825243</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="4"/>
-        <v>15.1</v>
+        <v>13.2</v>
       </c>
       <c r="G11" s="1">
         <v>8</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>8.5306553911205096</v>
+        <v>8.7702265372168284</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="4"/>
-        <v>8.5</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -1067,30 +1067,30 @@
         <v>8</v>
       </c>
       <c r="B13" s="12">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>15.639534883720932</v>
+        <v>18.709816612729234</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="4"/>
-        <v>15.6</v>
+        <v>18.7</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1098,7 +1098,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="12">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -1132,30 +1132,30 @@
         <v>19</v>
       </c>
       <c r="B15" s="13">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="1"/>
-        <v>11.942917547568712</v>
+        <v>11.401294498381876</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="4"/>
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I15" t="s">
         <v>17</v>
@@ -1164,7 +1164,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>SUM(C4:C15)</f>
-        <v>94.6</v>
+        <v>92.7</v>
       </c>
       <c r="E16">
         <f>SUM(E4:E15)</f>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="F16">
         <f>SUM(F4:F15)</f>
-        <v>299.90000000000003</v>
+        <v>299.99999999999994</v>
       </c>
       <c r="I16" t="s">
         <v>18</v>

--- a/Greece/GREEK SEATS.xlsx
+++ b/Greece/GREEK SEATS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harvi\Documents\Opinion-Polling\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34225FF5-8BC1-4A64-8168-DC5309D40E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E8A14D-5728-4D9E-AE3E-E118CDB7006D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>ND</t>
   </si>
@@ -96,13 +96,22 @@
   </si>
   <si>
     <t>KD</t>
+  </si>
+  <si>
+    <t>Reject!</t>
+  </si>
+  <si>
+    <t>if &gt;300…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +121,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -363,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -390,11 +407,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -724,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97613716-C1B1-4732-A08F-6A43BE8B05B8}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,30 +776,30 @@
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D1">
         <f>300</f>
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <f>B4-25</f>
-        <v>4.8999999999999986</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <f>B2/0.5</f>
-        <v>9.7999999999999972</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <f>ROUNDDOWN(20+C2,0)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
@@ -770,149 +811,170 @@
       </c>
       <c r="D3" s="8">
         <f>D1-D2</f>
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="11">
-        <v>29.9</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" ref="C4:C15" si="0">IF(B4&gt;=3,B4,0)</f>
-        <v>29.9</v>
+        <v>27</v>
       </c>
       <c r="D4" s="5">
         <f>(C4/$C$16)*$D$3</f>
-        <v>87.409924487594381</v>
+        <v>84.681818181818187</v>
       </c>
       <c r="E4" s="5">
         <f>ROUND(D4+D2,0)</f>
-        <v>116</v>
-      </c>
-      <c r="F4" s="5">
-        <f>ROUND(D4+D2,1)</f>
-        <v>116.4</v>
-      </c>
-      <c r="G4" s="5">
+        <v>109</v>
+      </c>
+      <c r="F4" s="18">
+        <f>ROUND(D4+D2,2)</f>
+        <v>108.68</v>
+      </c>
+      <c r="G4" s="21">
+        <f>(E4-F4)^2</f>
+        <v>0.10239999999999563</v>
+      </c>
+      <c r="H4" s="5">
         <v>158</v>
       </c>
-      <c r="H4" s="6">
-        <f>E4-G4</f>
-        <v>-42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" s="6">
+        <f>E4-H4</f>
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="12">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D15" si="1">(C5/$C$16)*$D$3</f>
-        <v>23.094929881337649</v>
+        <v>23.836363636363636</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E15" si="2">ROUND(D5,0)</f>
-        <v>23</v>
-      </c>
-      <c r="F5" s="1">
-        <f>ROUND(D5,1)</f>
-        <v>23.1</v>
-      </c>
-      <c r="G5" s="1">
+        <v>24</v>
+      </c>
+      <c r="F5" s="19">
+        <f>ROUND(D5,2)</f>
+        <v>23.84</v>
+      </c>
+      <c r="G5" s="21">
+        <f t="shared" ref="G5:G14" si="3">(E5-F5)^2</f>
+        <v>2.5600000000000046E-2</v>
+      </c>
+      <c r="H5" s="1">
         <v>47</v>
       </c>
-      <c r="H5" s="2">
-        <f t="shared" ref="H5:H15" si="3">E5-G5</f>
-        <v>-24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="2">
+        <f t="shared" ref="I5:I15" si="4">E5-H5</f>
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="12">
-        <v>16.5</v>
+        <v>14.9</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>16.5</v>
+        <v>14.9</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>48.236245954692556</v>
+        <v>46.731818181818177</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" ref="F6:F15" si="4">ROUND(D6,1)</f>
-        <v>48.2</v>
-      </c>
-      <c r="G6" s="1">
+        <v>47</v>
+      </c>
+      <c r="F6" s="19">
+        <f t="shared" ref="F6:F14" si="5">ROUND(D6,2)</f>
+        <v>46.73</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" si="3"/>
+        <v>7.2900000000001686E-2</v>
+      </c>
+      <c r="H6" s="1">
         <v>32</v>
       </c>
-      <c r="H6" s="2">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="2">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="12">
-        <v>8.1</v>
+        <v>9.6</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>8.1</v>
+        <v>9.6</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>23.679611650485434</v>
+        <v>30.109090909090909</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="F7" s="1">
+        <v>30</v>
+      </c>
+      <c r="F7" s="19">
+        <f t="shared" si="5"/>
+        <v>30.11</v>
+      </c>
+      <c r="G7" s="21">
+        <f t="shared" si="3"/>
+        <v>1.2099999999999875E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>21</v>
+      </c>
+      <c r="I7" s="2">
         <f t="shared" si="4"/>
-        <v>23.7</v>
-      </c>
-      <c r="G7" s="1">
-        <v>21</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="12">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -926,179 +988,203 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>12</v>
+      </c>
+      <c r="I8" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>12</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="3"/>
         <v>-12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="12">
-        <v>9.1999999999999993</v>
+        <v>10.8</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>9.1999999999999993</v>
+        <v>10.8</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>26.895361380798271</v>
+        <v>33.872727272727275</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="F9" s="1">
+        <v>34</v>
+      </c>
+      <c r="F9" s="19">
+        <f t="shared" si="5"/>
+        <v>33.869999999999997</v>
+      </c>
+      <c r="G9" s="21">
+        <f t="shared" si="3"/>
+        <v>1.6900000000000664E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>12</v>
+      </c>
+      <c r="I9" s="2">
         <f t="shared" si="4"/>
-        <v>26.9</v>
-      </c>
-      <c r="G9" s="1">
-        <v>12</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="12">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>9.6472491909385116</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
         <v>10</v>
       </c>
-      <c r="F10" s="1">
+      <c r="I10" s="2">
         <f t="shared" si="4"/>
-        <v>9.6</v>
-      </c>
-      <c r="G10" s="1">
-        <v>10</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="12">
-        <v>4.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>13.155339805825243</v>
+        <v>29.168181818181822</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="F11" s="1">
+        <v>29</v>
+      </c>
+      <c r="F11" s="19">
+        <f t="shared" si="5"/>
+        <v>29.17</v>
+      </c>
+      <c r="G11" s="21">
+        <f t="shared" si="3"/>
+        <v>2.8900000000000581E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>8</v>
+      </c>
+      <c r="I11" s="2">
         <f t="shared" si="4"/>
-        <v>13.2</v>
-      </c>
-      <c r="G11" s="1">
-        <v>8</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="12">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>8.7702265372168284</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
         <f t="shared" si="4"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="12">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>18.709816612729234</v>
+        <v>17.877272727272729</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="F13" s="1">
+        <v>18</v>
+      </c>
+      <c r="F13" s="19">
+        <f t="shared" si="5"/>
+        <v>17.88</v>
+      </c>
+      <c r="G13" s="21">
+        <f t="shared" si="3"/>
+        <v>1.4400000000000239E-2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
         <f t="shared" si="4"/>
-        <v>18.7</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="12">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -1112,75 +1198,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="13">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="1"/>
-        <v>11.401294498381876</v>
+        <v>9.7227272727272727</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="F15" s="3">
+        <v>10</v>
+      </c>
+      <c r="F15" s="20">
+        <f>ROUND(D15,2)</f>
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="G15" s="22">
+        <f>(E15-F15)^2</f>
+        <v>7.8399999999999637E-2</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
         <f t="shared" si="4"/>
-        <v>11.4</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>SUM(C4:C15)</f>
-        <v>92.7</v>
+        <v>88</v>
       </c>
       <c r="E16">
         <f>SUM(E4:E15)</f>
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F16">
         <f>SUM(F4:F15)</f>
-        <v>299.99999999999994</v>
-      </c>
-      <c r="I16" t="s">
+        <v>300.00000000000006</v>
+      </c>
+      <c r="J16" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H4:H15">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="I4:I15">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="0"/>
@@ -1191,6 +1285,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G15">
+    <cfRule type="top10" dxfId="1" priority="1" percent="1" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Greece/GREEK SEATS.xlsx
+++ b/Greece/GREEK SEATS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harvi\Documents\Opinion-Polling\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E8A14D-5728-4D9E-AE3E-E118CDB7006D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9896D5D1-B128-424F-8F76-99A7A158B871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
   </bookViews>
@@ -109,7 +109,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -410,8 +410,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -420,14 +420,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -768,7 +761,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,6 +1266,9 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G4:G15">
+    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I4:I15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -1285,9 +1281,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G15">
-    <cfRule type="top10" dxfId="1" priority="1" percent="1" rank="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Greece/GREEK SEATS.xlsx
+++ b/Greece/GREEK SEATS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harvi\Documents\Opinion-Polling\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9896D5D1-B128-424F-8F76-99A7A158B871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA82748D-1356-4DDF-9C12-7FFB4A77E989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -761,7 +761,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,11 +781,11 @@
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <f>B4-25</f>
-        <v>2</v>
+        <v>2.3999999999999986</v>
       </c>
       <c r="C2">
         <f>B2/0.5</f>
-        <v>4</v>
+        <v>4.7999999999999972</v>
       </c>
       <c r="D2">
         <f>ROUNDDOWN(20+C2,0)</f>
@@ -827,34 +827,34 @@
         <v>0</v>
       </c>
       <c r="B4" s="11">
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" ref="C4:C15" si="0">IF(B4&gt;=3,B4,0)</f>
-        <v>27</v>
+        <v>27.4</v>
       </c>
       <c r="D4" s="5">
         <f>(C4/$C$16)*$D$3</f>
-        <v>84.681818181818187</v>
+        <v>87.832752613240402</v>
       </c>
       <c r="E4" s="5">
         <f>ROUND(D4+D2,0)</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F4" s="18">
         <f>ROUND(D4+D2,2)</f>
-        <v>108.68</v>
+        <v>111.83</v>
       </c>
       <c r="G4" s="21">
         <f>(E4-F4)^2</f>
-        <v>0.10239999999999563</v>
+        <v>2.8900000000000581E-2</v>
       </c>
       <c r="H4" s="5">
         <v>158</v>
       </c>
       <c r="I4" s="6">
         <f>E4-H4</f>
-        <v>-49</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -862,34 +862,34 @@
         <v>1</v>
       </c>
       <c r="B5" s="12">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D15" si="1">(C5/$C$16)*$D$3</f>
-        <v>23.836363636363636</v>
+        <v>24.68292682926829</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E15" si="2">ROUND(D5,0)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="19">
         <f>ROUND(D5,2)</f>
-        <v>23.84</v>
+        <v>24.68</v>
       </c>
       <c r="G5" s="21">
         <f t="shared" ref="G5:G14" si="3">(E5-F5)^2</f>
-        <v>2.5600000000000046E-2</v>
+        <v>0.10240000000000019</v>
       </c>
       <c r="H5" s="1">
         <v>47</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" ref="I5:I15" si="4">E5-H5</f>
-        <v>-23</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -897,34 +897,34 @@
         <v>2</v>
       </c>
       <c r="B6" s="12">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>46.731818181818177</v>
+        <v>48.083623693379785</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" s="19">
         <f t="shared" ref="F6:F14" si="5">ROUND(D6,2)</f>
-        <v>46.73</v>
+        <v>48.08</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="3"/>
-        <v>7.2900000000001686E-2</v>
+        <v>6.3999999999997271E-3</v>
       </c>
       <c r="H6" s="1">
         <v>32</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -932,15 +932,15 @@
         <v>3</v>
       </c>
       <c r="B7" s="12">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>30.109090909090909</v>
+        <v>30.132404181184668</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
@@ -948,11 +948,11 @@
       </c>
       <c r="F7" s="19">
         <f t="shared" si="5"/>
-        <v>30.11</v>
+        <v>30.13</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="3"/>
-        <v>1.2099999999999875E-2</v>
+        <v>1.6899999999999742E-2</v>
       </c>
       <c r="H7" s="1">
         <v>21</v>
@@ -967,7 +967,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="12">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -1002,34 +1002,34 @@
         <v>5</v>
       </c>
       <c r="B9" s="12">
-        <v>10.8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>10.8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>33.872727272727275</v>
+        <v>28.85017421602787</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F9" s="19">
         <f t="shared" si="5"/>
-        <v>33.869999999999997</v>
+        <v>28.85</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="3"/>
-        <v>1.6900000000000664E-2</v>
+        <v>2.2499999999999572E-2</v>
       </c>
       <c r="H9" s="1">
         <v>12</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1037,7 +1037,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="12">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
@@ -1072,15 +1072,15 @@
         <v>7</v>
       </c>
       <c r="B11" s="12">
-        <v>9.3000000000000007</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>9.3000000000000007</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>29.168181818181822</v>
+        <v>28.85017421602787</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
@@ -1088,11 +1088,11 @@
       </c>
       <c r="F11" s="19">
         <f t="shared" si="5"/>
-        <v>29.17</v>
+        <v>28.85</v>
       </c>
       <c r="G11" s="21">
         <f t="shared" si="3"/>
-        <v>2.8900000000000581E-2</v>
+        <v>2.2499999999999572E-2</v>
       </c>
       <c r="H11" s="1">
         <v>8</v>
@@ -1107,7 +1107,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="12">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
@@ -1142,34 +1142,34 @@
         <v>8</v>
       </c>
       <c r="B13" s="12">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>17.877272727272729</v>
+        <v>17.310104529616723</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="19">
         <f t="shared" si="5"/>
-        <v>17.88</v>
+        <v>17.309999999999999</v>
       </c>
       <c r="G13" s="21">
         <f t="shared" si="3"/>
-        <v>1.4400000000000239E-2</v>
+        <v>9.6099999999999214E-2</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1177,7 +1177,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="12">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -1215,15 +1215,15 @@
         <v>19</v>
       </c>
       <c r="B15" s="13">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="1"/>
-        <v>9.7227272727272727</v>
+        <v>10.257839721254355</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="2"/>
@@ -1231,11 +1231,11 @@
       </c>
       <c r="F15" s="20">
         <f>ROUND(D15,2)</f>
-        <v>9.7200000000000006</v>
+        <v>10.26</v>
       </c>
       <c r="G15" s="22">
         <f>(E15-F15)^2</f>
-        <v>7.8399999999999637E-2</v>
+        <v>6.7599999999999882E-2</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1251,15 +1251,15 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>SUM(C4:C15)</f>
-        <v>88</v>
+        <v>86.100000000000009</v>
       </c>
       <c r="E16">
         <f>SUM(E4:E15)</f>
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F16">
         <f>SUM(F4:F15)</f>
-        <v>300.00000000000006</v>
+        <v>299.98999999999995</v>
       </c>
       <c r="J16" t="s">
         <v>18</v>

--- a/Greece/GREEK SEATS.xlsx
+++ b/Greece/GREEK SEATS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harvi\Documents\Opinion-Polling\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA82748D-1356-4DDF-9C12-7FFB4A77E989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E4DFDA-4DED-492F-AB21-38CE6D0D4047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -761,7 +761,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,15 +781,15 @@
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <f>B4-25</f>
-        <v>2.3999999999999986</v>
+        <v>1.5</v>
       </c>
       <c r="C2">
         <f>B2/0.5</f>
-        <v>4.7999999999999972</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <f>ROUNDDOWN(20+C2,0)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -804,7 +804,7 @@
       </c>
       <c r="D3" s="8">
         <f>D1-D2</f>
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>11</v>
@@ -827,34 +827,34 @@
         <v>0</v>
       </c>
       <c r="B4" s="11">
-        <v>27.4</v>
+        <v>26.5</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" ref="C4:C15" si="0">IF(B4&gt;=3,B4,0)</f>
-        <v>27.4</v>
+        <v>26.5</v>
       </c>
       <c r="D4" s="5">
         <f>(C4/$C$16)*$D$3</f>
-        <v>87.832752613240402</v>
+        <v>77.924628450106169</v>
       </c>
       <c r="E4" s="5">
         <f>ROUND(D4+D2,0)</f>
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F4" s="18">
         <f>ROUND(D4+D2,2)</f>
-        <v>111.83</v>
+        <v>100.92</v>
       </c>
       <c r="G4" s="21">
         <f>(E4-F4)^2</f>
-        <v>2.8900000000000581E-2</v>
+        <v>6.3999999999997271E-3</v>
       </c>
       <c r="H4" s="5">
         <v>158</v>
       </c>
       <c r="I4" s="6">
         <f>E4-H4</f>
-        <v>-46</v>
+        <v>-57</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -862,34 +862,34 @@
         <v>1</v>
       </c>
       <c r="B5" s="12">
-        <v>7.7</v>
+        <v>6.3</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>7.7</v>
+        <v>6.3</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D15" si="1">(C5/$C$16)*$D$3</f>
-        <v>24.68292682926829</v>
+        <v>18.525477707006374</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E15" si="2">ROUND(D5,0)</f>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F5" s="19">
         <f>ROUND(D5,2)</f>
-        <v>24.68</v>
+        <v>18.53</v>
       </c>
       <c r="G5" s="21">
         <f t="shared" ref="G5:G14" si="3">(E5-F5)^2</f>
-        <v>0.10240000000000019</v>
+        <v>0.22089999999999893</v>
       </c>
       <c r="H5" s="1">
         <v>47</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" ref="I5:I15" si="4">E5-H5</f>
-        <v>-22</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -897,34 +897,34 @@
         <v>2</v>
       </c>
       <c r="B6" s="12">
-        <v>15</v>
+        <v>14.1</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14.1</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>48.083623693379785</v>
+        <v>41.461783439490453</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F6" s="19">
         <f t="shared" ref="F6:F14" si="5">ROUND(D6,2)</f>
-        <v>48.08</v>
+        <v>41.46</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="3"/>
-        <v>6.3999999999997271E-3</v>
+        <v>0.21160000000000079</v>
       </c>
       <c r="H6" s="1">
         <v>32</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -932,34 +932,34 @@
         <v>3</v>
       </c>
       <c r="B7" s="12">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>30.132404181184668</v>
+        <v>26.464968152866245</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F7" s="19">
         <f t="shared" si="5"/>
-        <v>30.13</v>
+        <v>26.46</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="3"/>
-        <v>1.6899999999999742E-2</v>
+        <v>0.21160000000000079</v>
       </c>
       <c r="H7" s="1">
         <v>21</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -967,7 +967,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="12">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -1002,15 +1002,15 @@
         <v>5</v>
       </c>
       <c r="B9" s="12">
-        <v>9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>28.85017421602787</v>
+        <v>28.817409766454357</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
@@ -1018,11 +1018,11 @@
       </c>
       <c r="F9" s="19">
         <f t="shared" si="5"/>
-        <v>28.85</v>
+        <v>28.82</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="3"/>
-        <v>2.2499999999999572E-2</v>
+        <v>3.2399999999999901E-2</v>
       </c>
       <c r="H9" s="1">
         <v>12</v>
@@ -1037,34 +1037,34 @@
         <v>6</v>
       </c>
       <c r="B10" s="12">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.115711252653929</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F10" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="G10" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.4399999999999812E-2</v>
       </c>
       <c r="H10" s="1">
         <v>10</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="4"/>
-        <v>-10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1072,34 +1072,34 @@
         <v>7</v>
       </c>
       <c r="B11" s="12">
-        <v>9</v>
+        <v>14.6</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>14.6</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>28.85017421602787</v>
+        <v>42.932059447983022</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F11" s="19">
         <f t="shared" si="5"/>
-        <v>28.85</v>
+        <v>42.93</v>
       </c>
       <c r="G11" s="21">
         <f t="shared" si="3"/>
-        <v>2.2499999999999572E-2</v>
+        <v>4.9000000000000397E-3</v>
       </c>
       <c r="H11" s="1">
         <v>8</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1107,34 +1107,34 @@
         <v>10</v>
       </c>
       <c r="B12" s="12">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.7038216560509554</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F12" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G12" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.0000000000000427E-2</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1142,34 +1142,34 @@
         <v>8</v>
       </c>
       <c r="B13" s="12">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>17.310104529616723</v>
+        <v>12.35031847133758</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F13" s="19">
         <f t="shared" si="5"/>
-        <v>17.309999999999999</v>
+        <v>12.35</v>
       </c>
       <c r="G13" s="21">
         <f t="shared" si="3"/>
-        <v>9.6099999999999214E-2</v>
+        <v>0.12249999999999975</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1177,7 +1177,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="12">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -1215,15 +1215,15 @@
         <v>19</v>
       </c>
       <c r="B15" s="13">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="1"/>
-        <v>10.257839721254355</v>
+        <v>9.7038216560509554</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="2"/>
@@ -1231,11 +1231,11 @@
       </c>
       <c r="F15" s="20">
         <f>ROUND(D15,2)</f>
-        <v>10.26</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G15" s="22">
         <f>(E15-F15)^2</f>
-        <v>6.7599999999999882E-2</v>
+        <v>9.0000000000000427E-2</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1251,7 +1251,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>SUM(C4:C15)</f>
-        <v>86.100000000000009</v>
+        <v>94.199999999999989</v>
       </c>
       <c r="E16">
         <f>SUM(E4:E15)</f>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="F16">
         <f>SUM(F4:F15)</f>
-        <v>299.98999999999995</v>
+        <v>299.99</v>
       </c>
       <c r="J16" t="s">
         <v>18</v>

--- a/Greece/GREEK SEATS.xlsx
+++ b/Greece/GREEK SEATS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harvi\Documents\Opinion-Polling\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E4DFDA-4DED-492F-AB21-38CE6D0D4047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547BCC6B-8EB7-4023-8295-F4A01A946BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -761,7 +789,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,15 +809,15 @@
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <f>B4-25</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <f>B2/0.5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <f>ROUNDDOWN(20+C2,0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -804,7 +832,7 @@
       </c>
       <c r="D3" s="8">
         <f>D1-D2</f>
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>11</v>
@@ -827,34 +855,34 @@
         <v>0</v>
       </c>
       <c r="B4" s="11">
-        <v>26.5</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" ref="C4:C15" si="0">IF(B4&gt;=3,B4,0)</f>
-        <v>26.5</v>
+        <v>27</v>
       </c>
       <c r="D4" s="5">
         <f>(C4/$C$16)*$D$3</f>
-        <v>77.924628450106169</v>
+        <v>82.342541436464103</v>
       </c>
       <c r="E4" s="5">
         <f>ROUND(D4+D2,0)</f>
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F4" s="18">
         <f>ROUND(D4+D2,2)</f>
-        <v>100.92</v>
+        <v>106.34</v>
       </c>
       <c r="G4" s="21">
         <f>(E4-F4)^2</f>
-        <v>6.3999999999997271E-3</v>
+        <v>0.11560000000000233</v>
       </c>
       <c r="H4" s="5">
         <v>158</v>
       </c>
       <c r="I4" s="6">
         <f>E4-H4</f>
-        <v>-57</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -862,34 +890,34 @@
         <v>1</v>
       </c>
       <c r="B5" s="12">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D15" si="1">(C5/$C$16)*$D$3</f>
-        <v>18.525477707006374</v>
+        <v>19.823204419889507</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E15" si="2">ROUND(D5,0)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="19">
         <f>ROUND(D5,2)</f>
-        <v>18.53</v>
+        <v>19.82</v>
       </c>
       <c r="G5" s="21">
         <f t="shared" ref="G5:G14" si="3">(E5-F5)^2</f>
-        <v>0.22089999999999893</v>
+        <v>3.2399999999999901E-2</v>
       </c>
       <c r="H5" s="1">
         <v>47</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" ref="I5:I15" si="4">E5-H5</f>
-        <v>-28</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -897,34 +925,34 @@
         <v>2</v>
       </c>
       <c r="B6" s="12">
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>14.1</v>
+        <v>14.6</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>41.461783439490453</v>
+        <v>44.525966850828738</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F6" s="19">
         <f t="shared" ref="F6:F14" si="5">ROUND(D6,2)</f>
-        <v>41.46</v>
+        <v>44.53</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="3"/>
-        <v>0.21160000000000079</v>
+        <v>0.22089999999999893</v>
       </c>
       <c r="H6" s="1">
         <v>32</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -932,34 +960,34 @@
         <v>3</v>
       </c>
       <c r="B7" s="12">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>26.464968152866245</v>
+        <v>27.752486187845307</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F7" s="19">
         <f t="shared" si="5"/>
-        <v>26.46</v>
+        <v>27.75</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="3"/>
-        <v>0.21160000000000079</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H7" s="1">
         <v>21</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1002,15 +1030,15 @@
         <v>5</v>
       </c>
       <c r="B9" s="12">
-        <v>9.8000000000000007</v>
+        <v>9.6</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>9.8000000000000007</v>
+        <v>9.6</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>28.817409766454357</v>
+        <v>29.277348066298348</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
@@ -1018,11 +1046,11 @@
       </c>
       <c r="F9" s="19">
         <f t="shared" si="5"/>
-        <v>28.82</v>
+        <v>29.28</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="3"/>
-        <v>3.2399999999999901E-2</v>
+        <v>7.8400000000000636E-2</v>
       </c>
       <c r="H9" s="1">
         <v>12</v>
@@ -1037,15 +1065,15 @@
         <v>6</v>
       </c>
       <c r="B10" s="12">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>9.115711252653929</v>
+        <v>9.1491712707182344</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
@@ -1053,11 +1081,11 @@
       </c>
       <c r="F10" s="19">
         <f t="shared" si="5"/>
-        <v>9.1199999999999992</v>
+        <v>9.15</v>
       </c>
       <c r="G10" s="21">
         <f t="shared" si="3"/>
-        <v>1.4399999999999812E-2</v>
+        <v>2.2500000000000107E-2</v>
       </c>
       <c r="H10" s="1">
         <v>10</v>
@@ -1072,34 +1100,34 @@
         <v>7</v>
       </c>
       <c r="B11" s="12">
-        <v>14.6</v>
+        <v>13.6</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>14.6</v>
+        <v>13.6</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>42.932059447983022</v>
+        <v>41.476243093922662</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11" s="19">
         <f t="shared" si="5"/>
-        <v>42.93</v>
+        <v>41.48</v>
       </c>
       <c r="G11" s="21">
         <f t="shared" si="3"/>
-        <v>4.9000000000000397E-3</v>
+        <v>0.230399999999997</v>
       </c>
       <c r="H11" s="1">
         <v>8</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1107,34 +1135,34 @@
         <v>10</v>
       </c>
       <c r="B12" s="12">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>9.7038216560509554</v>
+        <v>9.4541436464088413</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="19">
         <f t="shared" si="5"/>
-        <v>9.6999999999999993</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="G12" s="21">
         <f t="shared" si="3"/>
-        <v>9.0000000000000427E-2</v>
+        <v>0.20249999999999935</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1142,15 +1170,15 @@
         <v>8</v>
       </c>
       <c r="B13" s="12">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>12.35031847133758</v>
+        <v>12.19889502762431</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
@@ -1158,11 +1186,11 @@
       </c>
       <c r="F13" s="19">
         <f t="shared" si="5"/>
-        <v>12.35</v>
+        <v>12.2</v>
       </c>
       <c r="G13" s="21">
         <f t="shared" si="3"/>
-        <v>0.12249999999999975</v>
+        <v>3.9999999999999716E-2</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -1177,7 +1205,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="12">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -1215,34 +1243,34 @@
         <v>19</v>
       </c>
       <c r="B15" s="13">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="1"/>
-        <v>9.7038216560509554</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F15" s="20">
         <f>ROUND(D15,2)</f>
-        <v>9.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="G15" s="22">
         <f>(E15-F15)^2</f>
-        <v>9.0000000000000427E-2</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
@@ -1251,15 +1279,15 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>SUM(C4:C15)</f>
-        <v>94.199999999999989</v>
+        <v>90.499999999999986</v>
       </c>
       <c r="E16">
         <f>SUM(E4:E15)</f>
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F16">
         <f>SUM(F4:F15)</f>
-        <v>299.99</v>
+        <v>300</v>
       </c>
       <c r="J16" t="s">
         <v>18</v>
@@ -1267,10 +1295,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G4:G15">
-    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="2" percent="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="1" percent="1" bottom="1" rank="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I15">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="0"/>

--- a/Greece/GREEK SEATS.xlsx
+++ b/Greece/GREEK SEATS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harvi\Documents\Opinion-Polling\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547BCC6B-8EB7-4023-8295-F4A01A946BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE2CA15-870A-4802-8408-2AEBF27EBB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
   </bookViews>
@@ -420,14 +420,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -439,20 +432,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -789,7 +768,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,11 +788,11 @@
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <f>B4-25</f>
-        <v>2</v>
+        <v>2.3000000000000007</v>
       </c>
       <c r="C2">
         <f>B2/0.5</f>
-        <v>4</v>
+        <v>4.6000000000000014</v>
       </c>
       <c r="D2">
         <f>ROUNDDOWN(20+C2,0)</f>
@@ -855,15 +834,15 @@
         <v>0</v>
       </c>
       <c r="B4" s="11">
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" ref="C4:C15" si="0">IF(B4&gt;=3,B4,0)</f>
-        <v>27</v>
+        <v>27.3</v>
       </c>
       <c r="D4" s="5">
         <f>(C4/$C$16)*$D$3</f>
-        <v>82.342541436464103</v>
+        <v>82.257641921397379</v>
       </c>
       <c r="E4" s="5">
         <f>ROUND(D4+D2,0)</f>
@@ -871,11 +850,11 @@
       </c>
       <c r="F4" s="18">
         <f>ROUND(D4+D2,2)</f>
-        <v>106.34</v>
+        <v>106.26</v>
       </c>
       <c r="G4" s="21">
         <f>(E4-F4)^2</f>
-        <v>0.11560000000000233</v>
+        <v>6.7600000000002658E-2</v>
       </c>
       <c r="H4" s="5">
         <v>158</v>
@@ -890,15 +869,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="12">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D15" si="1">(C5/$C$16)*$D$3</f>
-        <v>19.823204419889507</v>
+        <v>20.489082969432317</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E15" si="2">ROUND(D5,0)</f>
@@ -906,11 +885,11 @@
       </c>
       <c r="F5" s="19">
         <f>ROUND(D5,2)</f>
-        <v>19.82</v>
+        <v>20.49</v>
       </c>
       <c r="G5" s="21">
         <f t="shared" ref="G5:G14" si="3">(E5-F5)^2</f>
-        <v>3.2399999999999901E-2</v>
+        <v>0.24009999999999848</v>
       </c>
       <c r="H5" s="1">
         <v>47</v>
@@ -925,34 +904,34 @@
         <v>2</v>
       </c>
       <c r="B6" s="12">
-        <v>14.6</v>
+        <v>13.8</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>14.6</v>
+        <v>13.8</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>44.525966850828738</v>
+        <v>41.580786026200876</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F6" s="19">
         <f t="shared" ref="F6:F14" si="5">ROUND(D6,2)</f>
-        <v>44.53</v>
+        <v>41.58</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="3"/>
-        <v>0.22089999999999893</v>
+        <v>0.17640000000000144</v>
       </c>
       <c r="H6" s="1">
         <v>32</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -960,34 +939,34 @@
         <v>3</v>
       </c>
       <c r="B7" s="12">
-        <v>9.1</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>9.1</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>27.752486187845307</v>
+        <v>26.515283842794766</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="19">
         <f t="shared" si="5"/>
-        <v>27.75</v>
+        <v>26.52</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="3"/>
-        <v>6.25E-2</v>
+        <v>0.23040000000000041</v>
       </c>
       <c r="H7" s="1">
         <v>21</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -995,7 +974,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="12">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -1030,34 +1009,34 @@
         <v>5</v>
       </c>
       <c r="B9" s="12">
-        <v>9.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>9.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>29.277348066298348</v>
+        <v>30.733624454148469</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F9" s="19">
         <f t="shared" si="5"/>
-        <v>29.28</v>
+        <v>30.73</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="3"/>
-        <v>7.8400000000000636E-2</v>
+        <v>7.2899999999999771E-2</v>
       </c>
       <c r="H9" s="1">
         <v>12</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1065,34 +1044,34 @@
         <v>6</v>
       </c>
       <c r="B10" s="12">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>9.1491712707182344</v>
+        <v>9.9432314410480345</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="19">
         <f t="shared" si="5"/>
-        <v>9.15</v>
+        <v>9.94</v>
       </c>
       <c r="G10" s="21">
         <f t="shared" si="3"/>
-        <v>2.2500000000000107E-2</v>
+        <v>3.6000000000000597E-3</v>
       </c>
       <c r="H10" s="1">
         <v>10</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="4"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1100,34 +1079,34 @@
         <v>7</v>
       </c>
       <c r="B11" s="12">
-        <v>13.6</v>
+        <v>14.3</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>13.6</v>
+        <v>14.3</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>41.476243093922662</v>
+        <v>43.08733624454149</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F11" s="19">
         <f t="shared" si="5"/>
-        <v>41.48</v>
+        <v>43.09</v>
       </c>
       <c r="G11" s="21">
         <f t="shared" si="3"/>
-        <v>0.230399999999997</v>
+        <v>8.1000000000006137E-3</v>
       </c>
       <c r="H11" s="1">
         <v>8</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1135,15 +1114,15 @@
         <v>10</v>
       </c>
       <c r="B12" s="12">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>9.4541436464088413</v>
+        <v>9.039301310043669</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
@@ -1151,11 +1130,11 @@
       </c>
       <c r="F12" s="19">
         <f t="shared" si="5"/>
-        <v>9.4499999999999993</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="G12" s="21">
         <f t="shared" si="3"/>
-        <v>0.20249999999999935</v>
+        <v>1.5999999999999318E-3</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -1170,15 +1149,15 @@
         <v>8</v>
       </c>
       <c r="B13" s="12">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>12.19889502762431</v>
+        <v>12.353711790393014</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
@@ -1186,11 +1165,11 @@
       </c>
       <c r="F13" s="19">
         <f t="shared" si="5"/>
-        <v>12.2</v>
+        <v>12.35</v>
       </c>
       <c r="G13" s="21">
         <f t="shared" si="3"/>
-        <v>3.9999999999999716E-2</v>
+        <v>0.12249999999999975</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -1205,7 +1184,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="12">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -1243,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="13">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
@@ -1279,15 +1258,15 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>SUM(C4:C15)</f>
-        <v>90.499999999999986</v>
+        <v>91.6</v>
       </c>
       <c r="E16">
         <f>SUM(E4:E15)</f>
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F16">
         <f>SUM(F4:F15)</f>
-        <v>300</v>
+        <v>300.00000000000006</v>
       </c>
       <c r="J16" t="s">
         <v>18</v>
@@ -1295,8 +1274,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G4:G15">
-    <cfRule type="top10" dxfId="1" priority="2" percent="1" rank="1"/>
-    <cfRule type="top10" dxfId="0" priority="1" percent="1" bottom="1" rank="40"/>
+    <cfRule type="top10" dxfId="1" priority="1" percent="1" bottom="1" rank="40"/>
+    <cfRule type="top10" dxfId="0" priority="2" percent="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I15">
     <cfRule type="colorScale" priority="3">

--- a/Greece/GREEK SEATS.xlsx
+++ b/Greece/GREEK SEATS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harvi\Documents\Opinion-Polling\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE2CA15-870A-4802-8408-2AEBF27EBB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BC5B39-E894-406B-AC89-39E93D36620B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -768,7 +768,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,15 +788,15 @@
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <f>B4-25</f>
-        <v>2.3000000000000007</v>
+        <v>0.5</v>
       </c>
       <c r="C2">
         <f>B2/0.5</f>
-        <v>4.6000000000000014</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <f>ROUNDDOWN(20+C2,0)</f>
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -811,7 +811,7 @@
       </c>
       <c r="D3" s="8">
         <f>D1-D2</f>
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>11</v>
@@ -834,34 +834,34 @@
         <v>0</v>
       </c>
       <c r="B4" s="11">
-        <v>27.3</v>
+        <v>25.5</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" ref="C4:C15" si="0">IF(B4&gt;=3,B4,0)</f>
-        <v>27.3</v>
+        <v>25.5</v>
       </c>
       <c r="D4" s="5">
         <f>(C4/$C$16)*$D$3</f>
-        <v>82.257641921397379</v>
+        <v>75.92849519743865</v>
       </c>
       <c r="E4" s="5">
         <f>ROUND(D4+D2,0)</f>
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F4" s="18">
         <f>ROUND(D4+D2,2)</f>
-        <v>106.26</v>
+        <v>96.93</v>
       </c>
       <c r="G4" s="21">
         <f>(E4-F4)^2</f>
-        <v>6.7600000000002658E-2</v>
+        <v>4.8999999999990449E-3</v>
       </c>
       <c r="H4" s="5">
         <v>158</v>
       </c>
       <c r="I4" s="6">
         <f>E4-H4</f>
-        <v>-52</v>
+        <v>-61</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -869,15 +869,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="12">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D15" si="1">(C5/$C$16)*$D$3</f>
-        <v>20.489082969432317</v>
+        <v>19.949839914621133</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E15" si="2">ROUND(D5,0)</f>
@@ -885,11 +885,11 @@
       </c>
       <c r="F5" s="19">
         <f>ROUND(D5,2)</f>
-        <v>20.49</v>
+        <v>19.95</v>
       </c>
       <c r="G5" s="21">
         <f t="shared" ref="G5:G14" si="3">(E5-F5)^2</f>
-        <v>0.24009999999999848</v>
+        <v>2.5000000000000712E-3</v>
       </c>
       <c r="H5" s="1">
         <v>47</v>
@@ -904,34 +904,34 @@
         <v>2</v>
       </c>
       <c r="B6" s="12">
-        <v>13.8</v>
+        <v>12.5</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>13.8</v>
+        <v>12.5</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>41.580786026200876</v>
+        <v>37.219850586979724</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F6" s="19">
         <f t="shared" ref="F6:F14" si="5">ROUND(D6,2)</f>
-        <v>41.58</v>
+        <v>37.22</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="3"/>
-        <v>0.17640000000000144</v>
+        <v>4.8399999999999499E-2</v>
       </c>
       <c r="H6" s="1">
         <v>32</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -939,23 +939,23 @@
         <v>3</v>
       </c>
       <c r="B7" s="12">
-        <v>8.8000000000000007</v>
+        <v>9.9</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>8.8000000000000007</v>
+        <v>9.9</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>26.515283842794766</v>
+        <v>29.478121664887944</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F7" s="19">
         <f t="shared" si="5"/>
-        <v>26.52</v>
+        <v>29.48</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="3"/>
@@ -966,7 +966,7 @@
       </c>
       <c r="I7" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -974,7 +974,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="12">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -1009,34 +1009,34 @@
         <v>5</v>
       </c>
       <c r="B9" s="12">
-        <v>10.199999999999999</v>
+        <v>10.9</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>10.199999999999999</v>
+        <v>10.9</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>30.733624454148469</v>
+        <v>32.455709711846325</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="19">
         <f t="shared" si="5"/>
-        <v>30.73</v>
+        <v>32.46</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="3"/>
-        <v>7.2899999999999771E-2</v>
+        <v>0.21160000000000079</v>
       </c>
       <c r="H9" s="1">
         <v>12</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1044,15 +1044,15 @@
         <v>6</v>
       </c>
       <c r="B10" s="12">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>9.9432314410480345</v>
+        <v>9.528281750266812</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
@@ -1060,11 +1060,11 @@
       </c>
       <c r="F10" s="19">
         <f t="shared" si="5"/>
-        <v>9.94</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="G10" s="21">
         <f t="shared" si="3"/>
-        <v>3.6000000000000597E-3</v>
+        <v>0.2209000000000006</v>
       </c>
       <c r="H10" s="1">
         <v>10</v>
@@ -1079,34 +1079,34 @@
         <v>7</v>
       </c>
       <c r="B11" s="12">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>43.08733624454149</v>
+        <v>41.983991462113131</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="19">
         <f t="shared" si="5"/>
-        <v>43.09</v>
+        <v>41.98</v>
       </c>
       <c r="G11" s="21">
         <f t="shared" si="3"/>
-        <v>8.1000000000006137E-3</v>
+        <v>4.0000000000012508E-4</v>
       </c>
       <c r="H11" s="1">
         <v>8</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1114,34 +1114,34 @@
         <v>10</v>
       </c>
       <c r="B12" s="12">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>9.039301310043669</v>
+        <v>10.719316969050162</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F12" s="19">
         <f t="shared" si="5"/>
-        <v>9.0399999999999991</v>
+        <v>10.72</v>
       </c>
       <c r="G12" s="21">
         <f t="shared" si="3"/>
-        <v>1.5999999999999318E-3</v>
+        <v>7.8399999999999637E-2</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1149,15 +1149,15 @@
         <v>8</v>
       </c>
       <c r="B13" s="12">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>12.353711790393014</v>
+        <v>11.910352187833514</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
@@ -1165,11 +1165,11 @@
       </c>
       <c r="F13" s="19">
         <f t="shared" si="5"/>
-        <v>12.35</v>
+        <v>11.91</v>
       </c>
       <c r="G13" s="21">
         <f t="shared" si="3"/>
-        <v>0.12249999999999975</v>
+        <v>8.0999999999999753E-3</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="12">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -1222,34 +1222,34 @@
         <v>19</v>
       </c>
       <c r="B15" s="13">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.8260405549626473</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F15" s="20">
         <f>ROUND(D15,2)</f>
-        <v>0</v>
+        <v>9.83</v>
       </c>
       <c r="G15" s="22">
         <f>(E15-F15)^2</f>
-        <v>0</v>
+        <v>2.8899999999999974E-2</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
@@ -1258,7 +1258,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>SUM(C4:C15)</f>
-        <v>91.6</v>
+        <v>93.699999999999989</v>
       </c>
       <c r="E16">
         <f>SUM(E4:E15)</f>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="F16">
         <f>SUM(F4:F15)</f>
-        <v>300.00000000000006</v>
+        <v>300.01000000000005</v>
       </c>
       <c r="J16" t="s">
         <v>18</v>

--- a/Greece/GREEK SEATS.xlsx
+++ b/Greece/GREEK SEATS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harvi\Documents\Opinion-Polling\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BC5B39-E894-406B-AC89-39E93D36620B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7B5CF7-9700-4C0E-A3E1-BB6B8B16F878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
   </bookViews>
@@ -768,7 +768,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,15 +788,15 @@
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <f>B4-25</f>
-        <v>0.5</v>
+        <v>2.1000000000000014</v>
       </c>
       <c r="C2">
         <f>B2/0.5</f>
-        <v>1</v>
+        <v>4.2000000000000028</v>
       </c>
       <c r="D2">
         <f>ROUNDDOWN(20+C2,0)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -811,7 +811,7 @@
       </c>
       <c r="D3" s="8">
         <f>D1-D2</f>
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>11</v>
@@ -834,34 +834,34 @@
         <v>0</v>
       </c>
       <c r="B4" s="11">
-        <v>25.5</v>
+        <v>27.1</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" ref="C4:C15" si="0">IF(B4&gt;=3,B4,0)</f>
-        <v>25.5</v>
+        <v>27.1</v>
       </c>
       <c r="D4" s="5">
         <f>(C4/$C$16)*$D$3</f>
-        <v>75.92849519743865</v>
+        <v>79.233050847457633</v>
       </c>
       <c r="E4" s="5">
         <f>ROUND(D4+D2,0)</f>
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F4" s="18">
         <f>ROUND(D4+D2,2)</f>
-        <v>96.93</v>
+        <v>103.23</v>
       </c>
       <c r="G4" s="21">
         <f>(E4-F4)^2</f>
-        <v>4.8999999999990449E-3</v>
+        <v>5.2900000000001828E-2</v>
       </c>
       <c r="H4" s="5">
         <v>158</v>
       </c>
       <c r="I4" s="6">
         <f>E4-H4</f>
-        <v>-61</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -869,34 +869,34 @@
         <v>1</v>
       </c>
       <c r="B5" s="12">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D15" si="1">(C5/$C$16)*$D$3</f>
-        <v>19.949839914621133</v>
+        <v>20.758474576271183</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E15" si="2">ROUND(D5,0)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="19">
         <f>ROUND(D5,2)</f>
-        <v>19.95</v>
+        <v>20.76</v>
       </c>
       <c r="G5" s="21">
         <f t="shared" ref="G5:G14" si="3">(E5-F5)^2</f>
-        <v>2.5000000000000712E-3</v>
+        <v>5.7599999999999249E-2</v>
       </c>
       <c r="H5" s="1">
         <v>47</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" ref="I5:I15" si="4">E5-H5</f>
-        <v>-27</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -904,34 +904,34 @@
         <v>2</v>
       </c>
       <c r="B6" s="12">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>37.219850586979724</v>
+        <v>37.716101694915253</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="19">
         <f t="shared" ref="F6:F14" si="5">ROUND(D6,2)</f>
-        <v>37.22</v>
+        <v>37.72</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="3"/>
-        <v>4.8399999999999499E-2</v>
+        <v>7.8400000000000636E-2</v>
       </c>
       <c r="H6" s="1">
         <v>32</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -939,34 +939,34 @@
         <v>3</v>
       </c>
       <c r="B7" s="12">
-        <v>9.9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>9.9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>29.478121664887944</v>
+        <v>25.4364406779661</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F7" s="19">
         <f t="shared" si="5"/>
-        <v>29.48</v>
+        <v>25.44</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="3"/>
-        <v>0.23040000000000041</v>
+        <v>0.19360000000000113</v>
       </c>
       <c r="H7" s="1">
         <v>21</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -974,7 +974,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="12">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -1009,34 +1009,34 @@
         <v>5</v>
       </c>
       <c r="B9" s="12">
-        <v>10.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>10.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>32.455709711846325</v>
+        <v>28.652542372881356</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F9" s="19">
         <f t="shared" si="5"/>
-        <v>32.46</v>
+        <v>28.65</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="3"/>
-        <v>0.21160000000000079</v>
+        <v>0.122500000000001</v>
       </c>
       <c r="H9" s="1">
         <v>12</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1052,26 +1052,26 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>9.528281750266812</v>
+        <v>9.3559322033898304</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="19">
         <f t="shared" si="5"/>
-        <v>9.5299999999999994</v>
+        <v>9.36</v>
       </c>
       <c r="G10" s="21">
         <f t="shared" si="3"/>
-        <v>0.2209000000000006</v>
+        <v>0.1295999999999996</v>
       </c>
       <c r="H10" s="1">
         <v>10</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1079,34 +1079,34 @@
         <v>7</v>
       </c>
       <c r="B11" s="12">
-        <v>14.1</v>
+        <v>15.2</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>14.1</v>
+        <v>15.2</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>41.983991462113131</v>
+        <v>44.440677966101688</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F11" s="19">
         <f t="shared" si="5"/>
-        <v>41.98</v>
+        <v>44.44</v>
       </c>
       <c r="G11" s="21">
         <f t="shared" si="3"/>
-        <v>4.0000000000012508E-4</v>
+        <v>0.193599999999998</v>
       </c>
       <c r="H11" s="1">
         <v>8</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1114,34 +1114,34 @@
         <v>10</v>
       </c>
       <c r="B12" s="12">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>10.719316969050162</v>
+        <v>9.9406779661016937</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="19">
         <f t="shared" si="5"/>
-        <v>10.72</v>
+        <v>9.94</v>
       </c>
       <c r="G12" s="21">
         <f t="shared" si="3"/>
-        <v>7.8399999999999637E-2</v>
+        <v>3.6000000000000597E-3</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1149,34 +1149,34 @@
         <v>8</v>
       </c>
       <c r="B13" s="12">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>11.910352187833514</v>
+        <v>10.525423728813559</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="19">
         <f t="shared" si="5"/>
-        <v>11.91</v>
+        <v>10.53</v>
       </c>
       <c r="G13" s="21">
         <f t="shared" si="3"/>
-        <v>8.0999999999999753E-3</v>
+        <v>0.2209000000000006</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1184,7 +1184,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="12">
-        <v>2.2000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -1222,15 +1222,15 @@
         <v>19</v>
       </c>
       <c r="B15" s="13">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="1"/>
-        <v>9.8260405549626473</v>
+        <v>9.9406779661016937</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="2"/>
@@ -1238,11 +1238,11 @@
       </c>
       <c r="F15" s="20">
         <f>ROUND(D15,2)</f>
-        <v>9.83</v>
+        <v>9.94</v>
       </c>
       <c r="G15" s="22">
         <f>(E15-F15)^2</f>
-        <v>2.8899999999999974E-2</v>
+        <v>3.6000000000000597E-3</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1258,7 +1258,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>SUM(C4:C15)</f>
-        <v>93.699999999999989</v>
+        <v>94.4</v>
       </c>
       <c r="E16">
         <f>SUM(E4:E15)</f>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="F16">
         <f>SUM(F4:F15)</f>
-        <v>300.01000000000005</v>
+        <v>300.01</v>
       </c>
       <c r="J16" t="s">
         <v>18</v>

--- a/Greece/GREEK SEATS.xlsx
+++ b/Greece/GREEK SEATS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harvi\Documents\Opinion-Polling\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7B5CF7-9700-4C0E-A3E1-BB6B8B16F878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1001A7A-3981-4887-9461-260E52E59245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
+    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97613716-C1B1-4732-A08F-6A43BE8B05B8}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,15 +788,15 @@
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <f>B4-25</f>
-        <v>2.1000000000000014</v>
+        <v>4.3999999999999986</v>
       </c>
       <c r="C2">
         <f>B2/0.5</f>
-        <v>4.2000000000000028</v>
+        <v>8.7999999999999972</v>
       </c>
       <c r="D2">
         <f>ROUNDDOWN(20+C2,0)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -811,7 +811,7 @@
       </c>
       <c r="D3" s="8">
         <f>D1-D2</f>
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>11</v>
@@ -834,34 +834,34 @@
         <v>0</v>
       </c>
       <c r="B4" s="11">
-        <v>27.1</v>
+        <v>29.4</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" ref="C4:C15" si="0">IF(B4&gt;=3,B4,0)</f>
-        <v>27.1</v>
+        <v>29.4</v>
       </c>
       <c r="D4" s="5">
         <f>(C4/$C$16)*$D$3</f>
-        <v>79.233050847457633</v>
+        <v>89.851685393258421</v>
       </c>
       <c r="E4" s="5">
         <f>ROUND(D4+D2,0)</f>
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F4" s="18">
         <f>ROUND(D4+D2,2)</f>
-        <v>103.23</v>
+        <v>117.85</v>
       </c>
       <c r="G4" s="21">
         <f>(E4-F4)^2</f>
-        <v>5.2900000000001828E-2</v>
+        <v>2.2500000000001706E-2</v>
       </c>
       <c r="H4" s="5">
         <v>158</v>
       </c>
       <c r="I4" s="6">
         <f>E4-H4</f>
-        <v>-55</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -869,34 +869,34 @@
         <v>1</v>
       </c>
       <c r="B5" s="12">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D15" si="1">(C5/$C$16)*$D$3</f>
-        <v>20.758474576271183</v>
+        <v>24.44943820224719</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E15" si="2">ROUND(D5,0)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F5" s="19">
         <f>ROUND(D5,2)</f>
-        <v>20.76</v>
+        <v>24.45</v>
       </c>
       <c r="G5" s="21">
         <f t="shared" ref="G5:G14" si="3">(E5-F5)^2</f>
-        <v>5.7599999999999249E-2</v>
+        <v>0.20249999999999935</v>
       </c>
       <c r="H5" s="1">
         <v>47</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" ref="I5:I15" si="4">E5-H5</f>
-        <v>-26</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -904,15 +904,15 @@
         <v>2</v>
       </c>
       <c r="B6" s="12">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>37.716101694915253</v>
+        <v>37.896629213483145</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
@@ -920,11 +920,11 @@
       </c>
       <c r="F6" s="19">
         <f t="shared" ref="F6:F14" si="5">ROUND(D6,2)</f>
-        <v>37.72</v>
+        <v>37.9</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="3"/>
-        <v>7.8400000000000636E-2</v>
+        <v>1.0000000000000285E-2</v>
       </c>
       <c r="H6" s="1">
         <v>32</v>
@@ -939,34 +939,34 @@
         <v>3</v>
       </c>
       <c r="B7" s="12">
-        <v>8.6999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>8.6999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>25.4364406779661</v>
+        <v>25.977528089887638</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="19">
         <f t="shared" si="5"/>
-        <v>25.44</v>
+        <v>25.98</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="3"/>
-        <v>0.19360000000000113</v>
+        <v>3.9999999999998294E-4</v>
       </c>
       <c r="H7" s="1">
         <v>21</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -974,7 +974,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="12">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -1009,34 +1009,34 @@
         <v>5</v>
       </c>
       <c r="B9" s="12">
-        <v>9.8000000000000007</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>9.8000000000000007</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>28.652542372881356</v>
+        <v>30.561797752808989</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F9" s="19">
         <f t="shared" si="5"/>
-        <v>28.65</v>
+        <v>30.56</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="3"/>
-        <v>0.122500000000001</v>
+        <v>0.19360000000000113</v>
       </c>
       <c r="H9" s="1">
         <v>12</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1044,34 +1044,34 @@
         <v>6</v>
       </c>
       <c r="B10" s="12">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>9.3559322033898304</v>
+        <v>11.307865168539326</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F10" s="19">
         <f t="shared" si="5"/>
-        <v>9.36</v>
+        <v>11.31</v>
       </c>
       <c r="G10" s="21">
         <f t="shared" si="3"/>
-        <v>0.1295999999999996</v>
+        <v>9.610000000000031E-2</v>
       </c>
       <c r="H10" s="1">
         <v>10</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="4"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1079,34 +1079,34 @@
         <v>7</v>
       </c>
       <c r="B11" s="12">
-        <v>15.2</v>
+        <v>13.8</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>15.2</v>
+        <v>13.8</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>44.440677966101688</v>
+        <v>42.175280898876409</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F11" s="19">
         <f t="shared" si="5"/>
-        <v>44.44</v>
+        <v>42.18</v>
       </c>
       <c r="G11" s="21">
         <f t="shared" si="3"/>
-        <v>0.193599999999998</v>
+        <v>3.2399999999999901E-2</v>
       </c>
       <c r="H11" s="1">
         <v>8</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1114,34 +1114,34 @@
         <v>10</v>
       </c>
       <c r="B12" s="12">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>9.9406779661016937</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F12" s="19">
         <f t="shared" si="5"/>
-        <v>9.94</v>
+        <v>0</v>
       </c>
       <c r="G12" s="21">
         <f t="shared" si="3"/>
-        <v>3.6000000000000597E-3</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1149,34 +1149,34 @@
         <v>8</v>
       </c>
       <c r="B13" s="12">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>10.525423728813559</v>
+        <v>9.7797752808988765</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="19">
         <f t="shared" si="5"/>
-        <v>10.53</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="G13" s="21">
         <f t="shared" si="3"/>
-        <v>0.2209000000000006</v>
+        <v>4.8400000000000283E-2</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1184,7 +1184,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="12">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -1222,34 +1222,34 @@
         <v>19</v>
       </c>
       <c r="B15" s="13">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="1"/>
-        <v>9.9406779661016937</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F15" s="20">
         <f>ROUND(D15,2)</f>
-        <v>9.94</v>
+        <v>0</v>
       </c>
       <c r="G15" s="22">
         <f>(E15-F15)^2</f>
-        <v>3.6000000000000597E-3</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
@@ -1258,7 +1258,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>SUM(C4:C15)</f>
-        <v>94.4</v>
+        <v>89</v>
       </c>
       <c r="E16">
         <f>SUM(E4:E15)</f>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="F16">
         <f>SUM(F4:F15)</f>
-        <v>300.01</v>
+        <v>300.00999999999993</v>
       </c>
       <c r="J16" t="s">
         <v>18</v>

--- a/Greece/GREEK SEATS.xlsx
+++ b/Greece/GREEK SEATS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harvi\Documents\Opinion-Polling\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1001A7A-3981-4887-9461-260E52E59245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B085877-1AA4-4ADB-A55B-F564DF7C457F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -768,7 +768,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,15 +788,15 @@
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <f>B4-25</f>
-        <v>4.3999999999999986</v>
+        <v>5.3999999999999986</v>
       </c>
       <c r="C2">
         <f>B2/0.5</f>
-        <v>8.7999999999999972</v>
+        <v>10.799999999999997</v>
       </c>
       <c r="D2">
         <f>ROUNDDOWN(20+C2,0)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -811,7 +811,7 @@
       </c>
       <c r="D3" s="8">
         <f>D1-D2</f>
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>11</v>
@@ -834,15 +834,15 @@
         <v>0</v>
       </c>
       <c r="B4" s="11">
-        <v>29.4</v>
+        <v>30.4</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" ref="C4:C15" si="0">IF(B4&gt;=3,B4,0)</f>
-        <v>29.4</v>
+        <v>30.4</v>
       </c>
       <c r="D4" s="5">
         <f>(C4/$C$16)*$D$3</f>
-        <v>89.851685393258421</v>
+        <v>88.353067814854668</v>
       </c>
       <c r="E4" s="5">
         <f>ROUND(D4+D2,0)</f>
@@ -850,11 +850,11 @@
       </c>
       <c r="F4" s="18">
         <f>ROUND(D4+D2,2)</f>
-        <v>117.85</v>
+        <v>118.35</v>
       </c>
       <c r="G4" s="21">
         <f>(E4-F4)^2</f>
-        <v>2.2500000000001706E-2</v>
+        <v>0.12249999999999601</v>
       </c>
       <c r="H4" s="5">
         <v>158</v>
@@ -869,34 +869,34 @@
         <v>1</v>
       </c>
       <c r="B5" s="12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D15" si="1">(C5/$C$16)*$D$3</f>
-        <v>24.44943820224719</v>
+        <v>17.438105489773946</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E15" si="2">ROUND(D5,0)</f>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F5" s="19">
         <f>ROUND(D5,2)</f>
-        <v>24.45</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="G5" s="21">
         <f t="shared" ref="G5:G14" si="3">(E5-F5)^2</f>
-        <v>0.20249999999999935</v>
+        <v>0.19360000000000113</v>
       </c>
       <c r="H5" s="1">
         <v>47</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" ref="I5:I15" si="4">E5-H5</f>
-        <v>-23</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -904,15 +904,15 @@
         <v>2</v>
       </c>
       <c r="B6" s="12">
-        <v>12.4</v>
+        <v>13.1</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>12.4</v>
+        <v>13.1</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>37.896629213483145</v>
+        <v>38.073196986006451</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
@@ -920,11 +920,11 @@
       </c>
       <c r="F6" s="19">
         <f t="shared" ref="F6:F14" si="5">ROUND(D6,2)</f>
-        <v>37.9</v>
+        <v>38.07</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="3"/>
-        <v>1.0000000000000285E-2</v>
+        <v>4.9000000000000397E-3</v>
       </c>
       <c r="H6" s="1">
         <v>32</v>
@@ -939,34 +939,34 @@
         <v>3</v>
       </c>
       <c r="B7" s="12">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>25.977528089887638</v>
+        <v>23.250807319698595</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F7" s="19">
         <f t="shared" si="5"/>
-        <v>25.98</v>
+        <v>23.25</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="3"/>
-        <v>3.9999999999998294E-4</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H7" s="1">
         <v>21</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -974,7 +974,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="12">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -1009,34 +1009,34 @@
         <v>5</v>
       </c>
       <c r="B9" s="12">
-        <v>10</v>
+        <v>8.9</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8.9</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>30.561797752808989</v>
+        <v>25.866523143164688</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F9" s="19">
         <f t="shared" si="5"/>
-        <v>30.56</v>
+        <v>25.87</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="3"/>
-        <v>0.19360000000000113</v>
+        <v>1.6899999999999742E-2</v>
       </c>
       <c r="H9" s="1">
         <v>12</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1044,34 +1044,34 @@
         <v>6</v>
       </c>
       <c r="B10" s="12">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>11.307865168539326</v>
+        <v>9.8815931108719024</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="19">
         <f t="shared" si="5"/>
-        <v>11.31</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="G10" s="21">
         <f t="shared" si="3"/>
-        <v>9.610000000000031E-2</v>
+        <v>1.4399999999999812E-2</v>
       </c>
       <c r="H10" s="1">
         <v>10</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1079,34 +1079,34 @@
         <v>7</v>
       </c>
       <c r="B11" s="12">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>42.175280898876409</v>
+        <v>40.398277717976313</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" s="19">
         <f t="shared" si="5"/>
-        <v>42.18</v>
+        <v>40.4</v>
       </c>
       <c r="G11" s="21">
         <f t="shared" si="3"/>
-        <v>3.2399999999999901E-2</v>
+        <v>0.15999999999999887</v>
       </c>
       <c r="H11" s="1">
         <v>8</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1114,34 +1114,34 @@
         <v>10</v>
       </c>
       <c r="B12" s="12">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.719052744886973</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F12" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="G12" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.8399999999999637E-2</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1149,34 +1149,34 @@
         <v>8</v>
       </c>
       <c r="B13" s="12">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>9.7797752808988765</v>
+        <v>8.719052744886973</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="19">
         <f t="shared" si="5"/>
-        <v>9.7799999999999994</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="G13" s="21">
         <f t="shared" si="3"/>
-        <v>4.8400000000000283E-2</v>
+        <v>7.8399999999999637E-2</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1184,7 +1184,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="12">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -1222,34 +1222,34 @@
         <v>19</v>
       </c>
       <c r="B15" s="13">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.3003229278794386</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F15" s="20">
         <f>ROUND(D15,2)</f>
-        <v>0</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G15" s="22">
         <f>(E15-F15)^2</f>
-        <v>0</v>
+        <v>9.0000000000000427E-2</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
@@ -1258,15 +1258,15 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>SUM(C4:C15)</f>
-        <v>89</v>
+        <v>92.90000000000002</v>
       </c>
       <c r="E16">
         <f>SUM(E4:E15)</f>
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F16">
         <f>SUM(F4:F15)</f>
-        <v>300.00999999999993</v>
+        <v>300.00000000000006</v>
       </c>
       <c r="J16" t="s">
         <v>18</v>

--- a/Greece/GREEK SEATS.xlsx
+++ b/Greece/GREEK SEATS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harvi\Documents\Opinion-Polling\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B085877-1AA4-4ADB-A55B-F564DF7C457F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75A730C-B46C-4111-9D03-0A28473BE359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -768,7 +768,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,15 +788,15 @@
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <f>B4-25</f>
-        <v>5.3999999999999986</v>
+        <v>5.5</v>
       </c>
       <c r="C2">
         <f>B2/0.5</f>
-        <v>10.799999999999997</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <f>ROUNDDOWN(20+C2,0)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -811,7 +811,7 @@
       </c>
       <c r="D3" s="8">
         <f>D1-D2</f>
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>11</v>
@@ -834,34 +834,34 @@
         <v>0</v>
       </c>
       <c r="B4" s="11">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" ref="C4:C15" si="0">IF(B4&gt;=3,B4,0)</f>
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="D4" s="5">
         <f>(C4/$C$16)*$D$3</f>
-        <v>88.353067814854668</v>
+        <v>93.872997711670479</v>
       </c>
       <c r="E4" s="5">
         <f>ROUND(D4+D2,0)</f>
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F4" s="18">
         <f>ROUND(D4+D2,2)</f>
-        <v>118.35</v>
+        <v>124.87</v>
       </c>
       <c r="G4" s="21">
         <f>(E4-F4)^2</f>
-        <v>0.12249999999999601</v>
+        <v>1.6899999999998819E-2</v>
       </c>
       <c r="H4" s="5">
         <v>158</v>
       </c>
       <c r="I4" s="6">
         <f>E4-H4</f>
-        <v>-40</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -877,26 +877,26 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D15" si="1">(C5/$C$16)*$D$3</f>
-        <v>17.438105489773946</v>
+        <v>18.466819221967963</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E15" si="2">ROUND(D5,0)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="19">
         <f>ROUND(D5,2)</f>
-        <v>17.440000000000001</v>
+        <v>18.47</v>
       </c>
       <c r="G5" s="21">
         <f t="shared" ref="G5:G14" si="3">(E5-F5)^2</f>
-        <v>0.19360000000000113</v>
+        <v>0.22089999999999893</v>
       </c>
       <c r="H5" s="1">
         <v>47</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" ref="I5:I15" si="4">E5-H5</f>
-        <v>-30</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -904,23 +904,23 @@
         <v>2</v>
       </c>
       <c r="B6" s="12">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>38.073196986006451</v>
+        <v>40.934782608695656</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F6" s="19">
         <f t="shared" ref="F6:F14" si="5">ROUND(D6,2)</f>
-        <v>38.07</v>
+        <v>40.93</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="3"/>
@@ -931,7 +931,7 @@
       </c>
       <c r="I6" s="2">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -939,34 +939,34 @@
         <v>3</v>
       </c>
       <c r="B7" s="12">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>23.250807319698595</v>
+        <v>24.314645308924486</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="19">
         <f t="shared" si="5"/>
-        <v>23.25</v>
+        <v>24.31</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="3"/>
-        <v>6.25E-2</v>
+        <v>9.6099999999999214E-2</v>
       </c>
       <c r="H7" s="1">
         <v>21</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1009,34 +1009,34 @@
         <v>5</v>
       </c>
       <c r="B9" s="12">
-        <v>8.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>8.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>25.866523143164688</v>
+        <v>27.084668192219677</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="19">
         <f t="shared" si="5"/>
-        <v>25.87</v>
+        <v>27.08</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="3"/>
-        <v>1.6899999999999742E-2</v>
+        <v>6.3999999999997271E-3</v>
       </c>
       <c r="H9" s="1">
         <v>12</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>9.8815931108719024</v>
+        <v>10.464530892448513</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
@@ -1060,11 +1060,11 @@
       </c>
       <c r="F10" s="19">
         <f t="shared" si="5"/>
-        <v>9.8800000000000008</v>
+        <v>10.46</v>
       </c>
       <c r="G10" s="21">
         <f t="shared" si="3"/>
-        <v>1.4399999999999812E-2</v>
+        <v>0.21160000000000079</v>
       </c>
       <c r="H10" s="1">
         <v>10</v>
@@ -1079,34 +1079,34 @@
         <v>7</v>
       </c>
       <c r="B11" s="12">
-        <v>13.9</v>
+        <v>14.3</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>13.9</v>
+        <v>14.3</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>40.398277717976313</v>
+        <v>44.012585812356981</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F11" s="19">
         <f t="shared" si="5"/>
-        <v>40.4</v>
+        <v>44.01</v>
       </c>
       <c r="G11" s="21">
         <f t="shared" si="3"/>
-        <v>0.15999999999999887</v>
+        <v>9.9999999999960215E-5</v>
       </c>
       <c r="H11" s="1">
         <v>8</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1114,34 +1114,34 @@
         <v>10</v>
       </c>
       <c r="B12" s="12">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>8.719052744886973</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F12" s="19">
         <f t="shared" si="5"/>
-        <v>8.7200000000000006</v>
+        <v>0</v>
       </c>
       <c r="G12" s="21">
         <f t="shared" si="3"/>
-        <v>7.8399999999999637E-2</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1149,34 +1149,34 @@
         <v>8</v>
       </c>
       <c r="B13" s="12">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>8.719052744886973</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F13" s="19">
         <f t="shared" si="5"/>
-        <v>8.7200000000000006</v>
+        <v>0</v>
       </c>
       <c r="G13" s="21">
         <f t="shared" si="3"/>
-        <v>7.8399999999999637E-2</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1184,7 +1184,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="12">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -1230,26 +1230,26 @@
       </c>
       <c r="D15" s="3">
         <f t="shared" si="1"/>
-        <v>9.3003229278794386</v>
+        <v>9.8489702517162474</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="20">
         <f>ROUND(D15,2)</f>
-        <v>9.3000000000000007</v>
+        <v>9.85</v>
       </c>
       <c r="G15" s="22">
         <f>(E15-F15)^2</f>
-        <v>9.0000000000000427E-2</v>
+        <v>2.2500000000000107E-2</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
@@ -1258,7 +1258,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>SUM(C4:C15)</f>
-        <v>92.90000000000002</v>
+        <v>87.4</v>
       </c>
       <c r="E16">
         <f>SUM(E4:E15)</f>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="F16">
         <f>SUM(F4:F15)</f>
-        <v>300.00000000000006</v>
+        <v>299.98000000000008</v>
       </c>
       <c r="J16" t="s">
         <v>18</v>

--- a/Greece/GREEK SEATS.xlsx
+++ b/Greece/GREEK SEATS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harvi\Documents\Opinion-Polling\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75A730C-B46C-4111-9D03-0A28473BE359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD6CB6E-4B10-4722-98D3-23BC6F90426F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -768,7 +768,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="I25" activeCellId="1" sqref="K4 I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Greece/GREEK SEATS.xlsx
+++ b/Greece/GREEK SEATS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harvi\Documents\Opinion-Polling\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD6CB6E-4B10-4722-98D3-23BC6F90426F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5833C8D-425D-49C5-A3F9-E0FD717C269C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -768,7 +768,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I25" activeCellId="1" sqref="K4 I25"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,11 +788,11 @@
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <f>B4-25</f>
-        <v>5.5</v>
+        <v>5.6000000000000014</v>
       </c>
       <c r="C2">
         <f>B2/0.5</f>
-        <v>11</v>
+        <v>11.200000000000003</v>
       </c>
       <c r="D2">
         <f>ROUNDDOWN(20+C2,0)</f>
@@ -834,15 +834,15 @@
         <v>0</v>
       </c>
       <c r="B4" s="11">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" ref="C4:C15" si="0">IF(B4&gt;=3,B4,0)</f>
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="D4" s="5">
         <f>(C4/$C$16)*$D$3</f>
-        <v>93.872997711670479</v>
+        <v>94.073142857142855</v>
       </c>
       <c r="E4" s="5">
         <f>ROUND(D4+D2,0)</f>
@@ -850,11 +850,11 @@
       </c>
       <c r="F4" s="18">
         <f>ROUND(D4+D2,2)</f>
-        <v>124.87</v>
+        <v>125.07</v>
       </c>
       <c r="G4" s="21">
         <f>(E4-F4)^2</f>
-        <v>1.6899999999998819E-2</v>
+        <v>4.8999999999990449E-3</v>
       </c>
       <c r="H4" s="5">
         <v>158</v>
@@ -869,34 +869,34 @@
         <v>1</v>
       </c>
       <c r="B5" s="12">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D15" si="1">(C5/$C$16)*$D$3</f>
-        <v>18.466819221967963</v>
+        <v>17.215999999999998</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E15" si="2">ROUND(D5,0)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="19">
         <f>ROUND(D5,2)</f>
-        <v>18.47</v>
+        <v>17.22</v>
       </c>
       <c r="G5" s="21">
         <f t="shared" ref="G5:G14" si="3">(E5-F5)^2</f>
-        <v>0.22089999999999893</v>
+        <v>4.8399999999999499E-2</v>
       </c>
       <c r="H5" s="1">
         <v>47</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" ref="I5:I15" si="4">E5-H5</f>
-        <v>-29</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -904,34 +904,34 @@
         <v>2</v>
       </c>
       <c r="B6" s="12">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>40.934782608695656</v>
+        <v>41.810285714285705</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" s="19">
         <f t="shared" ref="F6:F14" si="5">ROUND(D6,2)</f>
-        <v>40.93</v>
+        <v>41.81</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="3"/>
-        <v>4.9000000000000397E-3</v>
+        <v>3.6099999999999133E-2</v>
       </c>
       <c r="H6" s="1">
         <v>32</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -939,34 +939,34 @@
         <v>3</v>
       </c>
       <c r="B7" s="12">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>24.314645308924486</v>
+        <v>24.594285714285711</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="19">
         <f t="shared" si="5"/>
-        <v>24.31</v>
+        <v>24.59</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="3"/>
-        <v>9.6099999999999214E-2</v>
+        <v>0.16810000000000011</v>
       </c>
       <c r="H7" s="1">
         <v>21</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -974,7 +974,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="12">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -1009,34 +1009,34 @@
         <v>5</v>
       </c>
       <c r="B9" s="12">
-        <v>8.8000000000000007</v>
+        <v>8.6</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>8.8000000000000007</v>
+        <v>8.6</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>27.084668192219677</v>
+        <v>26.438857142857138</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="19">
         <f t="shared" si="5"/>
-        <v>27.08</v>
+        <v>26.44</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="3"/>
-        <v>6.3999999999997271E-3</v>
+        <v>0.19360000000000113</v>
       </c>
       <c r="H9" s="1">
         <v>12</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1044,15 +1044,15 @@
         <v>6</v>
       </c>
       <c r="B10" s="12">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>10.464530892448513</v>
+        <v>9.8377142857142843</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
@@ -1060,11 +1060,11 @@
       </c>
       <c r="F10" s="19">
         <f t="shared" si="5"/>
-        <v>10.46</v>
+        <v>9.84</v>
       </c>
       <c r="G10" s="21">
         <f t="shared" si="3"/>
-        <v>0.21160000000000079</v>
+        <v>2.5600000000000046E-2</v>
       </c>
       <c r="H10" s="1">
         <v>10</v>
@@ -1079,34 +1079,34 @@
         <v>7</v>
       </c>
       <c r="B11" s="12">
-        <v>14.3</v>
+        <v>14.7</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>14.3</v>
+        <v>14.7</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>44.012585812356981</v>
+        <v>45.191999999999986</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" s="19">
         <f t="shared" si="5"/>
-        <v>44.01</v>
+        <v>45.19</v>
       </c>
       <c r="G11" s="21">
         <f t="shared" si="3"/>
-        <v>9.9999999999960215E-5</v>
+        <v>3.6099999999999133E-2</v>
       </c>
       <c r="H11" s="1">
         <v>8</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1114,7 +1114,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="12">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
@@ -1149,7 +1149,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="12">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
@@ -1184,7 +1184,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="12">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="D15" s="3">
         <f t="shared" si="1"/>
-        <v>9.8489702517162474</v>
+        <v>9.8377142857142843</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="2"/>
@@ -1238,11 +1238,11 @@
       </c>
       <c r="F15" s="20">
         <f>ROUND(D15,2)</f>
-        <v>9.85</v>
+        <v>9.84</v>
       </c>
       <c r="G15" s="22">
         <f>(E15-F15)^2</f>
-        <v>2.2500000000000107E-2</v>
+        <v>2.5600000000000046E-2</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1258,15 +1258,15 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>SUM(C4:C15)</f>
-        <v>87.4</v>
+        <v>87.500000000000014</v>
       </c>
       <c r="E16">
         <f>SUM(E4:E15)</f>
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F16">
         <f>SUM(F4:F15)</f>
-        <v>299.98000000000008</v>
+        <v>299.99999999999994</v>
       </c>
       <c r="J16" t="s">
         <v>18</v>

--- a/Greece/GREEK SEATS.xlsx
+++ b/Greece/GREEK SEATS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harvi\Documents\Opinion-Polling\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5833C8D-425D-49C5-A3F9-E0FD717C269C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245C2C2A-F1AF-4FBC-91F2-4995B8B78217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
+    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -768,7 +768,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,15 +788,15 @@
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <f>B4-25</f>
-        <v>5.6000000000000014</v>
+        <v>5.3000000000000007</v>
       </c>
       <c r="C2">
         <f>B2/0.5</f>
-        <v>11.200000000000003</v>
+        <v>10.600000000000001</v>
       </c>
       <c r="D2">
         <f>ROUNDDOWN(20+C2,0)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -811,7 +811,7 @@
       </c>
       <c r="D3" s="8">
         <f>D1-D2</f>
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>11</v>
@@ -834,34 +834,34 @@
         <v>0</v>
       </c>
       <c r="B4" s="11">
-        <v>30.6</v>
+        <v>30.3</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" ref="C4:C15" si="0">IF(B4&gt;=3,B4,0)</f>
-        <v>30.6</v>
+        <v>30.3</v>
       </c>
       <c r="D4" s="5">
         <f>(C4/$C$16)*$D$3</f>
-        <v>94.073142857142855</v>
+        <v>93.283922462941845</v>
       </c>
       <c r="E4" s="5">
         <f>ROUND(D4+D2,0)</f>
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F4" s="18">
         <f>ROUND(D4+D2,2)</f>
-        <v>125.07</v>
+        <v>123.28</v>
       </c>
       <c r="G4" s="21">
         <f>(E4-F4)^2</f>
-        <v>4.8999999999990449E-3</v>
+        <v>7.8400000000000636E-2</v>
       </c>
       <c r="H4" s="5">
         <v>158</v>
       </c>
       <c r="I4" s="6">
         <f>E4-H4</f>
-        <v>-33</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -869,34 +869,34 @@
         <v>1</v>
       </c>
       <c r="B5" s="12">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D15" si="1">(C5/$C$16)*$D$3</f>
-        <v>17.215999999999998</v>
+        <v>17.856328392246294</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E15" si="2">ROUND(D5,0)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="19">
         <f>ROUND(D5,2)</f>
-        <v>17.22</v>
+        <v>17.86</v>
       </c>
       <c r="G5" s="21">
         <f t="shared" ref="G5:G14" si="3">(E5-F5)^2</f>
-        <v>4.8399999999999499E-2</v>
+        <v>1.9600000000000159E-2</v>
       </c>
       <c r="H5" s="1">
         <v>47</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" ref="I5:I15" si="4">E5-H5</f>
-        <v>-30</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -904,34 +904,34 @@
         <v>2</v>
       </c>
       <c r="B6" s="12">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>41.810285714285705</v>
+        <v>42.793614595210947</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" s="19">
         <f t="shared" ref="F6:F14" si="5">ROUND(D6,2)</f>
-        <v>41.81</v>
+        <v>42.79</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="3"/>
-        <v>3.6099999999999133E-2</v>
+        <v>4.4100000000000361E-2</v>
       </c>
       <c r="H6" s="1">
         <v>32</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -939,34 +939,34 @@
         <v>3</v>
       </c>
       <c r="B7" s="12">
-        <v>8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>24.594285714285711</v>
+        <v>25.553021664766252</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="19">
         <f t="shared" si="5"/>
-        <v>24.59</v>
+        <v>25.55</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="3"/>
-        <v>0.16810000000000011</v>
+        <v>0.20249999999999935</v>
       </c>
       <c r="H7" s="1">
         <v>21</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1009,34 +1009,34 @@
         <v>5</v>
       </c>
       <c r="B9" s="12">
-        <v>8.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>8.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>26.438857142857138</v>
+        <v>27.092360319270242</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="19">
         <f t="shared" si="5"/>
-        <v>26.44</v>
+        <v>27.09</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="3"/>
-        <v>0.19360000000000113</v>
+        <v>8.0999999999999753E-3</v>
       </c>
       <c r="H9" s="1">
         <v>12</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>9.8377142857142843</v>
+        <v>9.8517673888255413</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
@@ -1060,11 +1060,11 @@
       </c>
       <c r="F10" s="19">
         <f t="shared" si="5"/>
-        <v>9.84</v>
+        <v>9.85</v>
       </c>
       <c r="G10" s="21">
         <f t="shared" si="3"/>
-        <v>2.5600000000000046E-2</v>
+        <v>2.2500000000000107E-2</v>
       </c>
       <c r="H10" s="1">
         <v>10</v>
@@ -1079,34 +1079,34 @@
         <v>7</v>
       </c>
       <c r="B11" s="12">
-        <v>14.7</v>
+        <v>14.2</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>14.7</v>
+        <v>14.2</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>45.191999999999986</v>
+        <v>43.717217787913334</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="19">
         <f t="shared" si="5"/>
-        <v>45.19</v>
+        <v>43.72</v>
       </c>
       <c r="G11" s="21">
         <f t="shared" si="3"/>
-        <v>3.6099999999999133E-2</v>
+        <v>7.8400000000000636E-2</v>
       </c>
       <c r="H11" s="1">
         <v>8</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="4"/>
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1184,7 +1184,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="12">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="D15" s="3">
         <f t="shared" si="1"/>
-        <v>9.8377142857142843</v>
+        <v>9.8517673888255413</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="2"/>
@@ -1238,11 +1238,11 @@
       </c>
       <c r="F15" s="20">
         <f>ROUND(D15,2)</f>
-        <v>9.84</v>
+        <v>9.85</v>
       </c>
       <c r="G15" s="22">
         <f>(E15-F15)^2</f>
-        <v>2.5600000000000046E-2</v>
+        <v>2.2500000000000107E-2</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1258,15 +1258,15 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>SUM(C4:C15)</f>
-        <v>87.500000000000014</v>
+        <v>87.7</v>
       </c>
       <c r="E16">
         <f>SUM(E4:E15)</f>
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F16">
         <f>SUM(F4:F15)</f>
-        <v>299.99999999999994</v>
+        <v>299.99</v>
       </c>
       <c r="J16" t="s">
         <v>18</v>

--- a/Greece/GREEK SEATS.xlsx
+++ b/Greece/GREEK SEATS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harvi\Documents\Opinion-Polling\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245C2C2A-F1AF-4FBC-91F2-4995B8B78217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7B8D8F-DED3-4438-BB51-DD9F17395633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
   </bookViews>
@@ -788,11 +788,11 @@
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <f>B4-25</f>
-        <v>5.3000000000000007</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <f>B2/0.5</f>
-        <v>10.600000000000001</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <f>ROUNDDOWN(20+C2,0)</f>
@@ -834,34 +834,34 @@
         <v>0</v>
       </c>
       <c r="B4" s="11">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" ref="C4:C15" si="0">IF(B4&gt;=3,B4,0)</f>
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5">
         <f>(C4/$C$16)*$D$3</f>
-        <v>93.283922462941845</v>
+        <v>89.010989010989022</v>
       </c>
       <c r="E4" s="5">
         <f>ROUND(D4+D2,0)</f>
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F4" s="18">
         <f>ROUND(D4+D2,2)</f>
-        <v>123.28</v>
+        <v>119.01</v>
       </c>
       <c r="G4" s="21">
         <f>(E4-F4)^2</f>
-        <v>7.8400000000000636E-2</v>
+        <v>1.0000000000010231E-4</v>
       </c>
       <c r="H4" s="5">
         <v>158</v>
       </c>
       <c r="I4" s="6">
         <f>E4-H4</f>
-        <v>-35</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -869,15 +869,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="12">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D15" si="1">(C5/$C$16)*$D$3</f>
-        <v>17.856328392246294</v>
+        <v>17.505494505494511</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E15" si="2">ROUND(D5,0)</f>
@@ -885,11 +885,11 @@
       </c>
       <c r="F5" s="19">
         <f>ROUND(D5,2)</f>
-        <v>17.86</v>
+        <v>17.510000000000002</v>
       </c>
       <c r="G5" s="21">
         <f t="shared" ref="G5:G14" si="3">(E5-F5)^2</f>
-        <v>1.9600000000000159E-2</v>
+        <v>0.24009999999999848</v>
       </c>
       <c r="H5" s="1">
         <v>47</v>
@@ -904,34 +904,34 @@
         <v>2</v>
       </c>
       <c r="B6" s="12">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>42.793614595210947</v>
+        <v>40.648351648351657</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" s="19">
         <f t="shared" ref="F6:F14" si="5">ROUND(D6,2)</f>
-        <v>42.79</v>
+        <v>40.65</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="3"/>
-        <v>4.4100000000000361E-2</v>
+        <v>0.122500000000001</v>
       </c>
       <c r="H6" s="1">
         <v>32</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -947,26 +947,26 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>25.553021664766252</v>
+        <v>24.626373626373631</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="19">
         <f t="shared" si="5"/>
-        <v>25.55</v>
+        <v>24.63</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="3"/>
-        <v>0.20249999999999935</v>
+        <v>0.13690000000000074</v>
       </c>
       <c r="H7" s="1">
         <v>21</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -974,7 +974,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="12">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -1009,15 +1009,15 @@
         <v>5</v>
       </c>
       <c r="B9" s="12">
-        <v>8.8000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>8.8000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>27.092360319270242</v>
+        <v>27.296703296703296</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
@@ -1025,11 +1025,11 @@
       </c>
       <c r="F9" s="19">
         <f t="shared" si="5"/>
-        <v>27.09</v>
+        <v>27.3</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="3"/>
-        <v>8.0999999999999753E-3</v>
+        <v>9.0000000000000427E-2</v>
       </c>
       <c r="H9" s="1">
         <v>12</v>
@@ -1044,15 +1044,15 @@
         <v>6</v>
       </c>
       <c r="B10" s="12">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>9.8517673888255413</v>
+        <v>9.791208791208792</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
@@ -1060,11 +1060,11 @@
       </c>
       <c r="F10" s="19">
         <f t="shared" si="5"/>
-        <v>9.85</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="G10" s="21">
         <f t="shared" si="3"/>
-        <v>2.2500000000000107E-2</v>
+        <v>4.4100000000000361E-2</v>
       </c>
       <c r="H10" s="1">
         <v>10</v>
@@ -1079,34 +1079,34 @@
         <v>7</v>
       </c>
       <c r="B11" s="12">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>43.717217787913334</v>
+        <v>42.428571428571438</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F11" s="19">
         <f t="shared" si="5"/>
-        <v>43.72</v>
+        <v>42.43</v>
       </c>
       <c r="G11" s="21">
         <f t="shared" si="3"/>
-        <v>7.8400000000000636E-2</v>
+        <v>0.18489999999999976</v>
       </c>
       <c r="H11" s="1">
         <v>8</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1114,34 +1114,34 @@
         <v>10</v>
       </c>
       <c r="B12" s="12">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.9010989010989032</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F12" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="G12" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.9999999999999291E-3</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1149,7 +1149,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="12">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
@@ -1184,7 +1184,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="12">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -1222,15 +1222,15 @@
         <v>19</v>
       </c>
       <c r="B15" s="13">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="1"/>
-        <v>9.8517673888255413</v>
+        <v>9.791208791208792</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="2"/>
@@ -1238,11 +1238,11 @@
       </c>
       <c r="F15" s="20">
         <f>ROUND(D15,2)</f>
-        <v>9.85</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="G15" s="22">
         <f>(E15-F15)^2</f>
-        <v>2.2500000000000107E-2</v>
+        <v>4.4100000000000361E-2</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1258,7 +1258,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>SUM(C4:C15)</f>
-        <v>87.7</v>
+        <v>90.999999999999986</v>
       </c>
       <c r="E16">
         <f>SUM(E4:E15)</f>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="F16">
         <f>SUM(F4:F15)</f>
-        <v>299.99</v>
+        <v>300.01</v>
       </c>
       <c r="J16" t="s">
         <v>18</v>

--- a/Greece/GREEK SEATS.xlsx
+++ b/Greece/GREEK SEATS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harvi\Documents\Opinion-Polling\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7B8D8F-DED3-4438-BB51-DD9F17395633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C965F314-FB6F-4F58-8034-5F8C1AA551E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -768,7 +768,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,15 +788,15 @@
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <f>B4-25</f>
-        <v>5</v>
+        <v>4.6999999999999993</v>
       </c>
       <c r="C2">
         <f>B2/0.5</f>
-        <v>10</v>
+        <v>9.3999999999999986</v>
       </c>
       <c r="D2">
         <f>ROUNDDOWN(20+C2,0)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -811,7 +811,7 @@
       </c>
       <c r="D3" s="8">
         <f>D1-D2</f>
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>11</v>
@@ -834,34 +834,34 @@
         <v>0</v>
       </c>
       <c r="B4" s="11">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" ref="C4:C15" si="0">IF(B4&gt;=3,B4,0)</f>
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="D4" s="5">
         <f>(C4/$C$16)*$D$3</f>
-        <v>89.010989010989022</v>
+        <v>85.442675159235648</v>
       </c>
       <c r="E4" s="5">
         <f>ROUND(D4+D2,0)</f>
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F4" s="18">
         <f>ROUND(D4+D2,2)</f>
-        <v>119.01</v>
+        <v>114.44</v>
       </c>
       <c r="G4" s="21">
         <f>(E4-F4)^2</f>
-        <v>1.0000000000010231E-4</v>
+        <v>0.193599999999998</v>
       </c>
       <c r="H4" s="5">
         <v>158</v>
       </c>
       <c r="I4" s="6">
         <f>E4-H4</f>
-        <v>-39</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -869,15 +869,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="12">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D15" si="1">(C5/$C$16)*$D$3</f>
-        <v>17.505494505494511</v>
+        <v>18.124203821656046</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E15" si="2">ROUND(D5,0)</f>
@@ -885,11 +885,11 @@
       </c>
       <c r="F5" s="19">
         <f>ROUND(D5,2)</f>
-        <v>17.510000000000002</v>
+        <v>18.12</v>
       </c>
       <c r="G5" s="21">
         <f t="shared" ref="G5:G14" si="3">(E5-F5)^2</f>
-        <v>0.24009999999999848</v>
+        <v>1.4400000000000239E-2</v>
       </c>
       <c r="H5" s="1">
         <v>47</v>
@@ -904,34 +904,34 @@
         <v>2</v>
       </c>
       <c r="B6" s="12">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>40.648351648351657</v>
+        <v>38.837579617834386</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" s="19">
         <f t="shared" ref="F6:F14" si="5">ROUND(D6,2)</f>
-        <v>40.65</v>
+        <v>38.840000000000003</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="3"/>
-        <v>0.122500000000001</v>
+        <v>2.5599999999998908E-2</v>
       </c>
       <c r="H6" s="1">
         <v>32</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -939,15 +939,15 @@
         <v>3</v>
       </c>
       <c r="B7" s="12">
-        <v>8.3000000000000007</v>
+        <v>8.6</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>8.3000000000000007</v>
+        <v>8.6</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>24.626373626373631</v>
+        <v>24.740976645435239</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
@@ -955,11 +955,11 @@
       </c>
       <c r="F7" s="19">
         <f t="shared" si="5"/>
-        <v>24.63</v>
+        <v>24.74</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="3"/>
-        <v>0.13690000000000074</v>
+        <v>6.7600000000000812E-2</v>
       </c>
       <c r="H7" s="1">
         <v>21</v>
@@ -974,7 +974,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="12">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -1009,34 +1009,34 @@
         <v>5</v>
       </c>
       <c r="B9" s="12">
-        <v>9.1999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>9.1999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>27.296703296703296</v>
+        <v>28.193205944798297</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="19">
         <f t="shared" si="5"/>
-        <v>27.3</v>
+        <v>28.19</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="3"/>
-        <v>9.0000000000000427E-2</v>
+        <v>3.6100000000000486E-2</v>
       </c>
       <c r="H9" s="1">
         <v>12</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1044,23 +1044,23 @@
         <v>6</v>
       </c>
       <c r="B10" s="12">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>9.791208791208792</v>
+        <v>9.2059447983014842</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="19">
         <f t="shared" si="5"/>
-        <v>9.7899999999999991</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="G10" s="21">
         <f t="shared" si="3"/>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="I10" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1079,34 +1079,34 @@
         <v>7</v>
       </c>
       <c r="B11" s="12">
-        <v>14.3</v>
+        <v>13.9</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>14.3</v>
+        <v>13.9</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>42.428571428571438</v>
+        <v>39.988322717622069</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" s="19">
         <f t="shared" si="5"/>
-        <v>42.43</v>
+        <v>39.99</v>
       </c>
       <c r="G11" s="21">
         <f t="shared" si="3"/>
-        <v>0.18489999999999976</v>
+        <v>9.9999999999960215E-5</v>
       </c>
       <c r="H11" s="1">
         <v>8</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>8.9010989010989032</v>
+        <v>8.6305732484076412</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
@@ -1130,11 +1130,11 @@
       </c>
       <c r="F12" s="19">
         <f t="shared" si="5"/>
-        <v>8.9</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="G12" s="21">
         <f t="shared" si="3"/>
-        <v>9.9999999999999291E-3</v>
+        <v>0.13689999999999941</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -1149,34 +1149,34 @@
         <v>8</v>
       </c>
       <c r="B13" s="12">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.6305732484076412</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F13" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="G13" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.13689999999999941</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1184,7 +1184,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="12">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -1222,23 +1222,23 @@
         <v>19</v>
       </c>
       <c r="B15" s="13">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="1"/>
-        <v>9.791208791208792</v>
+        <v>9.2059447983014842</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="20">
         <f>ROUND(D15,2)</f>
-        <v>9.7899999999999991</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="G15" s="22">
         <f>(E15-F15)^2</f>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I15" s="4">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
@@ -1258,15 +1258,15 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>SUM(C4:C15)</f>
-        <v>90.999999999999986</v>
+        <v>94.200000000000017</v>
       </c>
       <c r="E16">
         <f>SUM(E4:E15)</f>
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F16">
         <f>SUM(F4:F15)</f>
-        <v>300.01</v>
+        <v>300</v>
       </c>
       <c r="J16" t="s">
         <v>18</v>

--- a/Greece/GREEK SEATS.xlsx
+++ b/Greece/GREEK SEATS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harvi\Documents\Opinion-Polling\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C965F314-FB6F-4F58-8034-5F8C1AA551E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C52E623-7C22-45E0-A01D-E85A5CD39C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -768,7 +768,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,26 +842,26 @@
       </c>
       <c r="D4" s="5">
         <f>(C4/$C$16)*$D$3</f>
-        <v>85.442675159235648</v>
+        <v>87.867903930131007</v>
       </c>
       <c r="E4" s="5">
         <f>ROUND(D4+D2,0)</f>
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F4" s="18">
         <f>ROUND(D4+D2,2)</f>
-        <v>114.44</v>
+        <v>116.87</v>
       </c>
       <c r="G4" s="21">
         <f>(E4-F4)^2</f>
-        <v>0.193599999999998</v>
+        <v>1.6899999999998819E-2</v>
       </c>
       <c r="H4" s="5">
         <v>158</v>
       </c>
       <c r="I4" s="6">
         <f>E4-H4</f>
-        <v>-44</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -877,26 +877,26 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D15" si="1">(C5/$C$16)*$D$3</f>
-        <v>18.124203821656046</v>
+        <v>18.63864628820961</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E15" si="2">ROUND(D5,0)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="19">
         <f>ROUND(D5,2)</f>
-        <v>18.12</v>
+        <v>18.64</v>
       </c>
       <c r="G5" s="21">
         <f t="shared" ref="G5:G14" si="3">(E5-F5)^2</f>
-        <v>1.4400000000000239E-2</v>
+        <v>0.1295999999999996</v>
       </c>
       <c r="H5" s="1">
         <v>47</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" ref="I5:I15" si="4">E5-H5</f>
-        <v>-29</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -904,34 +904,34 @@
         <v>2</v>
       </c>
       <c r="B6" s="12">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>38.837579617834386</v>
+        <v>40.235807860262014</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" s="19">
         <f t="shared" ref="F6:F14" si="5">ROUND(D6,2)</f>
-        <v>38.840000000000003</v>
+        <v>40.24</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="3"/>
-        <v>2.5599999999998908E-2</v>
+        <v>5.7600000000000956E-2</v>
       </c>
       <c r="H6" s="1">
         <v>32</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -947,7 +947,7 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>24.740976645435239</v>
+        <v>25.443231441048034</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
@@ -955,11 +955,11 @@
       </c>
       <c r="F7" s="19">
         <f t="shared" si="5"/>
-        <v>24.74</v>
+        <v>25.44</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="3"/>
-        <v>6.7600000000000812E-2</v>
+        <v>0.19360000000000113</v>
       </c>
       <c r="H7" s="1">
         <v>21</v>
@@ -1017,26 +1017,26 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>28.193205944798297</v>
+        <v>28.993449781659393</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="19">
         <f t="shared" si="5"/>
-        <v>28.19</v>
+        <v>28.99</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="3"/>
-        <v>3.6100000000000486E-2</v>
+        <v>1.0000000000003127E-4</v>
       </c>
       <c r="H9" s="1">
         <v>12</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1044,34 +1044,34 @@
         <v>6</v>
       </c>
       <c r="B10" s="12">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>9.2059447983014842</v>
+        <v>9.7631004366812224</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="19">
         <f t="shared" si="5"/>
-        <v>9.2100000000000009</v>
+        <v>9.76</v>
       </c>
       <c r="G10" s="21">
         <f t="shared" si="3"/>
-        <v>4.4100000000000361E-2</v>
+        <v>5.7600000000000103E-2</v>
       </c>
       <c r="H10" s="1">
         <v>10</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="4"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1087,26 +1087,26 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>39.988322717622069</v>
+        <v>41.123362445414855</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" s="19">
         <f t="shared" si="5"/>
-        <v>39.99</v>
+        <v>41.12</v>
       </c>
       <c r="G11" s="21">
         <f t="shared" si="3"/>
-        <v>9.9999999999960215E-5</v>
+        <v>1.4399999999999386E-2</v>
       </c>
       <c r="H11" s="1">
         <v>8</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1114,15 +1114,15 @@
         <v>10</v>
       </c>
       <c r="B12" s="12">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>8.6305732484076412</v>
+        <v>9.1713973799126638</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
@@ -1130,11 +1130,11 @@
       </c>
       <c r="F12" s="19">
         <f t="shared" si="5"/>
-        <v>8.6300000000000008</v>
+        <v>9.17</v>
       </c>
       <c r="G12" s="21">
         <f t="shared" si="3"/>
-        <v>0.13689999999999941</v>
+        <v>2.8899999999999974E-2</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -1149,34 +1149,34 @@
         <v>8</v>
       </c>
       <c r="B13" s="12">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>8.6305732484076412</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F13" s="19">
         <f t="shared" si="5"/>
-        <v>8.6300000000000008</v>
+        <v>0</v>
       </c>
       <c r="G13" s="21">
         <f t="shared" si="3"/>
-        <v>0.13689999999999941</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1222,34 +1222,34 @@
         <v>19</v>
       </c>
       <c r="B15" s="13">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="1"/>
-        <v>9.2059447983014842</v>
+        <v>9.7631004366812224</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="20">
         <f>ROUND(D15,2)</f>
-        <v>9.2100000000000009</v>
+        <v>9.76</v>
       </c>
       <c r="G15" s="22">
         <f>(E15-F15)^2</f>
-        <v>4.4100000000000361E-2</v>
+        <v>5.7600000000000103E-2</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
@@ -1258,7 +1258,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>SUM(C4:C15)</f>
-        <v>94.200000000000017</v>
+        <v>91.6</v>
       </c>
       <c r="E16">
         <f>SUM(E4:E15)</f>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="F16">
         <f>SUM(F4:F15)</f>
-        <v>300</v>
+        <v>299.99</v>
       </c>
       <c r="J16" t="s">
         <v>18</v>

--- a/Greece/GREEK SEATS.xlsx
+++ b/Greece/GREEK SEATS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harvi\Documents\Opinion-Polling\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C52E623-7C22-45E0-A01D-E85A5CD39C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738C917C-84D5-4587-80DD-8DF150EC5915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
   </bookViews>
@@ -788,15 +788,15 @@
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <f>B4-25</f>
-        <v>4.6999999999999993</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <f>B2/0.5</f>
-        <v>9.3999999999999986</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <f>ROUNDDOWN(20+C2,0)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -811,7 +811,7 @@
       </c>
       <c r="D3" s="8">
         <f>D1-D2</f>
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>11</v>
@@ -834,34 +834,34 @@
         <v>0</v>
       </c>
       <c r="B4" s="11">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" ref="C4:C15" si="0">IF(B4&gt;=3,B4,0)</f>
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5">
         <f>(C4/$C$16)*$D$3</f>
-        <v>87.867903930131007</v>
+        <v>92.360319270239444</v>
       </c>
       <c r="E4" s="5">
         <f>ROUND(D4+D2,0)</f>
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F4" s="18">
         <f>ROUND(D4+D2,2)</f>
-        <v>116.87</v>
+        <v>122.36</v>
       </c>
       <c r="G4" s="21">
         <f>(E4-F4)^2</f>
-        <v>1.6899999999998819E-2</v>
+        <v>0.1295999999999996</v>
       </c>
       <c r="H4" s="5">
         <v>158</v>
       </c>
       <c r="I4" s="6">
         <f>E4-H4</f>
-        <v>-41</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -877,7 +877,7 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D15" si="1">(C5/$C$16)*$D$3</f>
-        <v>18.63864628820961</v>
+        <v>19.395667046750283</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E15" si="2">ROUND(D5,0)</f>
@@ -885,11 +885,11 @@
       </c>
       <c r="F5" s="19">
         <f>ROUND(D5,2)</f>
-        <v>18.64</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="G5" s="21">
         <f t="shared" ref="G5:G14" si="3">(E5-F5)^2</f>
-        <v>0.1295999999999996</v>
+        <v>0.15999999999999887</v>
       </c>
       <c r="H5" s="1">
         <v>47</v>
@@ -912,26 +912,26 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>40.235807860262014</v>
+        <v>41.870011402508545</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6" s="19">
         <f t="shared" ref="F6:F14" si="5">ROUND(D6,2)</f>
-        <v>40.24</v>
+        <v>41.87</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="3"/>
-        <v>5.7600000000000956E-2</v>
+        <v>1.6900000000000664E-2</v>
       </c>
       <c r="H6" s="1">
         <v>32</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -939,34 +939,34 @@
         <v>3</v>
       </c>
       <c r="B7" s="12">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>25.443231441048034</v>
+        <v>26.168757126567844</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="19">
         <f t="shared" si="5"/>
-        <v>25.44</v>
+        <v>26.17</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="3"/>
-        <v>0.19360000000000113</v>
+        <v>2.8900000000000581E-2</v>
       </c>
       <c r="H7" s="1">
         <v>21</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1009,34 +1009,34 @@
         <v>5</v>
       </c>
       <c r="B9" s="12">
-        <v>9.8000000000000007</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>9.8000000000000007</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>28.993449781659393</v>
+        <v>30.786773090079816</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F9" s="19">
         <f t="shared" si="5"/>
-        <v>28.99</v>
+        <v>30.79</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="3"/>
-        <v>1.0000000000003127E-4</v>
+        <v>4.4100000000000361E-2</v>
       </c>
       <c r="H9" s="1">
         <v>12</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1044,34 +1044,34 @@
         <v>6</v>
       </c>
       <c r="B10" s="12">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>9.7631004366812224</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F10" s="19">
         <f t="shared" si="5"/>
-        <v>9.76</v>
+        <v>0</v>
       </c>
       <c r="G10" s="21">
         <f t="shared" si="3"/>
-        <v>5.7600000000000103E-2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
         <v>10</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1079,34 +1079,34 @@
         <v>7</v>
       </c>
       <c r="B11" s="12">
-        <v>13.9</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>13.9</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>41.123362445414855</v>
+        <v>40.022805017103764</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="19">
         <f t="shared" si="5"/>
-        <v>41.12</v>
+        <v>40.020000000000003</v>
       </c>
       <c r="G11" s="21">
         <f t="shared" si="3"/>
-        <v>1.4399999999999386E-2</v>
+        <v>4.0000000000012508E-4</v>
       </c>
       <c r="H11" s="1">
         <v>8</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1114,34 +1114,34 @@
         <v>10</v>
       </c>
       <c r="B12" s="12">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>9.1713973799126638</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F12" s="19">
         <f t="shared" si="5"/>
-        <v>9.17</v>
+        <v>0</v>
       </c>
       <c r="G12" s="21">
         <f t="shared" si="3"/>
-        <v>2.8899999999999974E-2</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1149,34 +1149,34 @@
         <v>8</v>
       </c>
       <c r="B13" s="12">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5438996579247419</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F13" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="G13" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.21160000000000079</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1184,7 +1184,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="12">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -1222,15 +1222,15 @@
         <v>19</v>
       </c>
       <c r="B15" s="13">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="1"/>
-        <v>9.7631004366812224</v>
+        <v>9.8517673888255413</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="2"/>
@@ -1238,11 +1238,11 @@
       </c>
       <c r="F15" s="20">
         <f>ROUND(D15,2)</f>
-        <v>9.76</v>
+        <v>9.85</v>
       </c>
       <c r="G15" s="22">
         <f>(E15-F15)^2</f>
-        <v>5.7600000000000103E-2</v>
+        <v>2.2500000000000107E-2</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1258,7 +1258,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>SUM(C4:C15)</f>
-        <v>91.6</v>
+        <v>87.7</v>
       </c>
       <c r="E16">
         <f>SUM(E4:E15)</f>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="F16">
         <f>SUM(F4:F15)</f>
-        <v>299.99</v>
+        <v>300.00000000000006</v>
       </c>
       <c r="J16" t="s">
         <v>18</v>

--- a/Greece/GREEK SEATS.xlsx
+++ b/Greece/GREEK SEATS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harvi\Documents\Opinion-Polling\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738C917C-84D5-4587-80DD-8DF150EC5915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B9E6CC-4FDC-4AAC-B8C6-417A2ACBC711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -768,7 +796,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,11 +816,11 @@
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <f>B4-25</f>
-        <v>5</v>
+        <v>5.3999999999999986</v>
       </c>
       <c r="C2">
         <f>B2/0.5</f>
-        <v>10</v>
+        <v>10.799999999999997</v>
       </c>
       <c r="D2">
         <f>ROUNDDOWN(20+C2,0)</f>
@@ -834,15 +862,15 @@
         <v>0</v>
       </c>
       <c r="B4" s="11">
-        <v>30</v>
+        <v>30.4</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" ref="C4:C15" si="0">IF(B4&gt;=3,B4,0)</f>
-        <v>30</v>
+        <v>30.4</v>
       </c>
       <c r="D4" s="5">
         <f>(C4/$C$16)*$D$3</f>
-        <v>92.360319270239444</v>
+        <v>92.224719101123583</v>
       </c>
       <c r="E4" s="5">
         <f>ROUND(D4+D2,0)</f>
@@ -850,11 +878,11 @@
       </c>
       <c r="F4" s="18">
         <f>ROUND(D4+D2,2)</f>
-        <v>122.36</v>
+        <v>122.22</v>
       </c>
       <c r="G4" s="21">
         <f>(E4-F4)^2</f>
-        <v>0.1295999999999996</v>
+        <v>4.8399999999999499E-2</v>
       </c>
       <c r="H4" s="5">
         <v>158</v>
@@ -869,34 +897,34 @@
         <v>1</v>
       </c>
       <c r="B5" s="12">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D15" si="1">(C5/$C$16)*$D$3</f>
-        <v>19.395667046750283</v>
+        <v>16.382022471910116</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E15" si="2">ROUND(D5,0)</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F5" s="19">
         <f>ROUND(D5,2)</f>
-        <v>19.399999999999999</v>
+        <v>16.38</v>
       </c>
       <c r="G5" s="21">
         <f t="shared" ref="G5:G14" si="3">(E5-F5)^2</f>
-        <v>0.15999999999999887</v>
+        <v>0.14439999999999925</v>
       </c>
       <c r="H5" s="1">
         <v>47</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" ref="I5:I15" si="4">E5-H5</f>
-        <v>-28</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -904,15 +932,15 @@
         <v>2</v>
       </c>
       <c r="B6" s="12">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>41.870011402508545</v>
+        <v>42.168539325842701</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
@@ -920,11 +948,11 @@
       </c>
       <c r="F6" s="19">
         <f t="shared" ref="F6:F14" si="5">ROUND(D6,2)</f>
-        <v>41.87</v>
+        <v>42.17</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="3"/>
-        <v>1.6900000000000664E-2</v>
+        <v>2.8900000000000581E-2</v>
       </c>
       <c r="H6" s="1">
         <v>32</v>
@@ -939,34 +967,34 @@
         <v>3</v>
       </c>
       <c r="B7" s="12">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>26.168757126567844</v>
+        <v>24.269662921348313</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" s="19">
         <f t="shared" si="5"/>
-        <v>26.17</v>
+        <v>24.27</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="3"/>
-        <v>2.8900000000000581E-2</v>
+        <v>7.2899999999999771E-2</v>
       </c>
       <c r="H7" s="1">
         <v>21</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -974,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="12">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -1009,34 +1037,34 @@
         <v>5</v>
       </c>
       <c r="B9" s="12">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>30.786773090079816</v>
+        <v>29.123595505617978</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F9" s="19">
         <f t="shared" si="5"/>
-        <v>30.79</v>
+        <v>29.12</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="3"/>
-        <v>4.4100000000000361E-2</v>
+        <v>1.4400000000000239E-2</v>
       </c>
       <c r="H9" s="1">
         <v>12</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1044,7 +1072,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="12">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
@@ -1079,34 +1107,34 @@
         <v>7</v>
       </c>
       <c r="B11" s="12">
-        <v>13</v>
+        <v>11.7</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>11.7</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>40.022805017103764</v>
+        <v>35.49438202247191</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F11" s="19">
         <f t="shared" si="5"/>
-        <v>40.020000000000003</v>
+        <v>35.49</v>
       </c>
       <c r="G11" s="21">
         <f t="shared" si="3"/>
-        <v>4.0000000000012508E-4</v>
+        <v>0.24010000000000195</v>
       </c>
       <c r="H11" s="1">
         <v>8</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1114,34 +1142,34 @@
         <v>10</v>
       </c>
       <c r="B12" s="12">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.404494382022472</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F12" s="19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="G12" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.16000000000000028</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1149,15 +1177,15 @@
         <v>8</v>
       </c>
       <c r="B13" s="12">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>9.5438996579247419</v>
+        <v>10.314606741573034</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
@@ -1165,11 +1193,11 @@
       </c>
       <c r="F13" s="19">
         <f t="shared" si="5"/>
-        <v>9.5399999999999991</v>
+        <v>10.31</v>
       </c>
       <c r="G13" s="21">
         <f t="shared" si="3"/>
-        <v>0.21160000000000079</v>
+        <v>9.610000000000031E-2</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -1184,7 +1212,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="12">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -1222,51 +1250,55 @@
         <v>19</v>
       </c>
       <c r="B15" s="13">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="1"/>
-        <v>9.8517673888255413</v>
+        <v>10.617977528089888</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" s="20">
         <f>ROUND(D15,2)</f>
-        <v>9.85</v>
+        <v>10.62</v>
       </c>
       <c r="G15" s="22">
         <f>(E15-F15)^2</f>
-        <v>2.2500000000000107E-2</v>
+        <v>0.14440000000000058</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>SUM(B4:B15)</f>
+        <v>95.399999999999991</v>
+      </c>
       <c r="C16">
         <f>SUM(C4:C15)</f>
-        <v>87.7</v>
+        <v>89</v>
       </c>
       <c r="E16">
         <f>SUM(E4:E15)</f>
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F16">
         <f>SUM(F4:F15)</f>
-        <v>300.00000000000006</v>
+        <v>299.97999999999996</v>
       </c>
       <c r="J16" t="s">
         <v>18</v>
@@ -1274,8 +1306,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G4:G15">
-    <cfRule type="top10" dxfId="1" priority="1" percent="1" bottom="1" rank="40"/>
-    <cfRule type="top10" dxfId="0" priority="2" percent="1" rank="1"/>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
+      <formula>0.000000001</formula>
+      <formula>0.03</formula>
+    </cfRule>
+    <cfRule type="top10" dxfId="0" priority="2" percent="1" rank="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I15">
     <cfRule type="colorScale" priority="3">

--- a/Greece/GREEK SEATS.xlsx
+++ b/Greece/GREEK SEATS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harvi\Documents\Opinion-Polling\Greece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B9E6CC-4FDC-4AAC-B8C6-417A2ACBC711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF470AB-9D3D-4B2C-AE4A-012C16871FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
+    <workbookView xWindow="-105" yWindow="10440" windowWidth="19410" windowHeight="10545" xr2:uid="{2C96B14F-CFC7-4BE4-93E4-84B93424BB6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,35 +420,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -796,7 +768,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,15 +788,15 @@
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <f>B4-25</f>
-        <v>5.3999999999999986</v>
+        <v>4.1999999999999993</v>
       </c>
       <c r="C2">
         <f>B2/0.5</f>
-        <v>10.799999999999997</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="D2">
         <f>ROUNDDOWN(20+C2,0)</f>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -839,7 +811,7 @@
       </c>
       <c r="D3" s="8">
         <f>D1-D2</f>
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>11</v>
@@ -862,34 +834,34 @@
         <v>0</v>
       </c>
       <c r="B4" s="11">
-        <v>30.4</v>
+        <v>29.2</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" ref="C4:C15" si="0">IF(B4&gt;=3,B4,0)</f>
-        <v>30.4</v>
+        <v>29.2</v>
       </c>
       <c r="D4" s="5">
         <f>(C4/$C$16)*$D$3</f>
-        <v>92.224719101123583</v>
+        <v>88.445434298440972</v>
       </c>
       <c r="E4" s="5">
         <f>ROUND(D4+D2,0)</f>
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F4" s="18">
         <f>ROUND(D4+D2,2)</f>
-        <v>122.22</v>
+        <v>116.45</v>
       </c>
       <c r="G4" s="21">
         <f>(E4-F4)^2</f>
-        <v>4.8399999999999499E-2</v>
+        <v>0.20250000000000257</v>
       </c>
       <c r="H4" s="5">
         <v>158</v>
       </c>
       <c r="I4" s="6">
         <f>E4-H4</f>
-        <v>-36</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -897,34 +869,34 @@
         <v>1</v>
       </c>
       <c r="B5" s="12">
-        <v>5.4</v>
+        <v>6.5</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>5.4</v>
+        <v>6.5</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D15" si="1">(C5/$C$16)*$D$3</f>
-        <v>16.382022471910116</v>
+        <v>19.688195991091316</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E15" si="2">ROUND(D5,0)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5" s="19">
         <f>ROUND(D5,2)</f>
-        <v>16.38</v>
+        <v>19.690000000000001</v>
       </c>
       <c r="G5" s="21">
         <f t="shared" ref="G5:G14" si="3">(E5-F5)^2</f>
-        <v>0.14439999999999925</v>
+        <v>9.6099999999999214E-2</v>
       </c>
       <c r="H5" s="1">
         <v>47</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" ref="I5:I15" si="4">E5-H5</f>
-        <v>-31</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -932,34 +904,34 @@
         <v>2</v>
       </c>
       <c r="B6" s="12">
-        <v>13.9</v>
+        <v>13.3</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>13.9</v>
+        <v>13.3</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>42.168539325842701</v>
+        <v>40.285077951002229</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F6" s="19">
         <f t="shared" ref="F6:F14" si="5">ROUND(D6,2)</f>
-        <v>42.17</v>
+        <v>40.29</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="3"/>
-        <v>2.8900000000000581E-2</v>
+        <v>8.4099999999999508E-2</v>
       </c>
       <c r="H6" s="1">
         <v>32</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -967,15 +939,15 @@
         <v>3</v>
       </c>
       <c r="B7" s="12">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>24.269662921348313</v>
+        <v>23.928730512249444</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
@@ -983,11 +955,11 @@
       </c>
       <c r="F7" s="19">
         <f t="shared" si="5"/>
-        <v>24.27</v>
+        <v>23.93</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="3"/>
-        <v>7.2899999999999771E-2</v>
+        <v>4.9000000000000397E-3</v>
       </c>
       <c r="H7" s="1">
         <v>21</v>
@@ -1002,7 +974,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="12">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -1037,34 +1009,34 @@
         <v>5</v>
       </c>
       <c r="B9" s="12">
-        <v>9.6</v>
+        <v>9.9</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>9.6</v>
+        <v>9.9</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>29.123595505617978</v>
+        <v>29.986636971046774</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="19">
         <f t="shared" si="5"/>
-        <v>29.12</v>
+        <v>29.99</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="3"/>
-        <v>1.4400000000000239E-2</v>
+        <v>1.0000000000003127E-4</v>
       </c>
       <c r="H9" s="1">
         <v>12</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1072,7 +1044,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="12">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
@@ -1107,34 +1079,34 @@
         <v>7</v>
       </c>
       <c r="B11" s="12">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>35.49438202247191</v>
+        <v>36.953229398663694</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F11" s="19">
         <f t="shared" si="5"/>
-        <v>35.49</v>
+        <v>36.950000000000003</v>
       </c>
       <c r="G11" s="21">
         <f t="shared" si="3"/>
-        <v>0.24010000000000195</v>
+        <v>2.499999999999716E-3</v>
       </c>
       <c r="H11" s="1">
         <v>8</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1142,34 +1114,34 @@
         <v>10</v>
       </c>
       <c r="B12" s="12">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>9.404494382022472</v>
+        <v>11.812917594654788</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F12" s="19">
         <f t="shared" si="5"/>
-        <v>9.4</v>
+        <v>11.81</v>
       </c>
       <c r="G12" s="21">
         <f t="shared" si="3"/>
-        <v>0.16000000000000028</v>
+        <v>3.6099999999999813E-2</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1177,34 +1149,34 @@
         <v>8</v>
       </c>
       <c r="B13" s="12">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>10.314606741573034</v>
+        <v>10.904231625835189</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" s="19">
         <f t="shared" si="5"/>
-        <v>10.31</v>
+        <v>10.9</v>
       </c>
       <c r="G13" s="21">
         <f t="shared" si="3"/>
-        <v>9.610000000000031E-2</v>
+        <v>9.9999999999999291E-3</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1212,7 +1184,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="12">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -1250,34 +1222,34 @@
         <v>19</v>
       </c>
       <c r="B15" s="13">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="1"/>
-        <v>10.617977528089888</v>
+        <v>9.9955456570155903</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="20">
         <f>ROUND(D15,2)</f>
-        <v>10.62</v>
+        <v>10</v>
       </c>
       <c r="G15" s="22">
         <f>(E15-F15)^2</f>
-        <v>0.14440000000000058</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
@@ -1286,19 +1258,19 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>SUM(B4:B15)</f>
-        <v>95.399999999999991</v>
+        <v>95.5</v>
       </c>
       <c r="C16">
         <f>SUM(C4:C15)</f>
-        <v>89</v>
+        <v>89.8</v>
       </c>
       <c r="E16">
         <f>SUM(E4:E15)</f>
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F16">
         <f>SUM(F4:F15)</f>
-        <v>299.97999999999996</v>
+        <v>300.01</v>
       </c>
       <c r="J16" t="s">
         <v>18</v>
